--- a/Finance Universe/MSTR.xlsx
+++ b/Finance Universe/MSTR.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\game\Documents\GitHub\finance\Finance Universe\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52C6588B-5F48-4345-8837-D484BB29F836}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCFF9FC3-5E03-4BBB-B610-E9AA522CC2DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7275" yWindow="1830" windowWidth="24975" windowHeight="16200" xr2:uid="{E39AE9FB-F613-4F5F-A005-99F9E982EA5E}"/>
+    <workbookView xWindow="-18270" yWindow="5475" windowWidth="24975" windowHeight="16200" xr2:uid="{E39AE9FB-F613-4F5F-A005-99F9E982EA5E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -225,7 +225,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -257,6 +257,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -275,17 +283,20 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -601,10 +612,10 @@
   <dimension ref="A1:CJ55"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C12" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="H45" sqref="H45"/>
+      <selection pane="bottomRight" activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -615,7 +626,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
     </row>
@@ -2566,6 +2577,9 @@
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A1" r:id="rId1" xr:uid="{50A81402-C209-4DA1-9AAE-4055382828F7}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Finance Universe/MSTR.xlsx
+++ b/Finance Universe/MSTR.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\game\Documents\GitHub\finance\Finance Universe\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCFF9FC3-5E03-4BBB-B610-E9AA522CC2DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0AAAAAD-8A9D-4F1B-A6D6-94D1C1238E9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-18270" yWindow="5475" windowWidth="24975" windowHeight="16200" xr2:uid="{E39AE9FB-F613-4F5F-A005-99F9E982EA5E}"/>
+    <workbookView xWindow="19935" yWindow="6345" windowWidth="24975" windowHeight="16200" activeTab="1" xr2:uid="{E39AE9FB-F613-4F5F-A005-99F9E982EA5E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="82">
   <si>
     <t>main</t>
   </si>
@@ -219,13 +220,81 @@
   </si>
   <si>
     <t>Short-Term Investments</t>
+  </si>
+  <si>
+    <t>Price</t>
+  </si>
+  <si>
+    <t>Shares</t>
+  </si>
+  <si>
+    <t>MC</t>
+  </si>
+  <si>
+    <t>EV</t>
+  </si>
+  <si>
+    <t>Return Ratios</t>
+  </si>
+  <si>
+    <t>TTM Cash Flow</t>
+  </si>
+  <si>
+    <t>ROE</t>
+  </si>
+  <si>
+    <t>ROA</t>
+  </si>
+  <si>
+    <t>ROTB</t>
+  </si>
+  <si>
+    <t>ROIC</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>Convertible Stock</t>
+  </si>
+  <si>
+    <t>Shareholders Equity</t>
+  </si>
+  <si>
+    <t>S/E + L</t>
+  </si>
+  <si>
+    <t>Maturity</t>
+  </si>
+  <si>
+    <t>Discount</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>NPV</t>
+  </si>
+  <si>
+    <t>Net</t>
+  </si>
+  <si>
+    <t>Current Price</t>
+  </si>
+  <si>
+    <t>Forecasted Price</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <numFmts count="3">
+    <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
+    <numFmt numFmtId="166" formatCode="&quot;$&quot;#,##0"/>
+    <numFmt numFmtId="167" formatCode="&quot;$&quot;#,##0.0"/>
+  </numFmts>
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -265,6 +334,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF00B0F0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -274,7 +350,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -282,18 +358,126 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="8" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="8" fontId="5" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -609,13 +793,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4A18B54-DABC-4048-B6E4-AF4393711BFE}">
-  <dimension ref="A1:CJ55"/>
+  <dimension ref="A1:CJ71"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="O3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="E28" sqref="E28"/>
+      <selection pane="bottomRight" activeCell="T30" sqref="T30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -623,14 +807,16 @@
     <col min="2" max="2" width="32" customWidth="1"/>
     <col min="3" max="3" width="8.5703125" customWidth="1"/>
     <col min="4" max="6" width="9.42578125" customWidth="1"/>
+    <col min="19" max="19" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="10.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:28" x14ac:dyDescent="0.25">
       <c r="C2" t="s">
         <v>56</v>
       </c>
@@ -679,8 +865,39 @@
       <c r="R2" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="U2">
+        <v>2019</v>
+      </c>
+      <c r="V2">
+        <f>U2+1</f>
+        <v>2020</v>
+      </c>
+      <c r="W2">
+        <f>V2+1</f>
+        <v>2021</v>
+      </c>
+      <c r="X2">
+        <f>W2+1</f>
+        <v>2022</v>
+      </c>
+      <c r="Y2">
+        <f>X2+1</f>
+        <v>2023</v>
+      </c>
+      <c r="Z2">
+        <f>Y2+1</f>
+        <v>2024</v>
+      </c>
+      <c r="AA2">
+        <f>Z2+1</f>
+        <v>2025</v>
+      </c>
+      <c r="AB2">
+        <f>AA2+1</f>
+        <v>2026</v>
+      </c>
+    </row>
+    <row r="4" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B4" s="1" t="s">
         <v>1</v>
       </c>
@@ -689,1891 +906,3016 @@
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>14</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="6">
         <v>18.291</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="6">
         <v>20.120999999999999</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="6">
         <v>18.972000000000001</v>
       </c>
-      <c r="F5">
+      <c r="F5" s="6">
         <f>87.471-E5-D5-C5</f>
         <v>30.087</v>
       </c>
-      <c r="G5">
+      <c r="G5" s="6">
         <v>12.584</v>
       </c>
-      <c r="H5">
+      <c r="H5" s="6">
         <v>14.816000000000001</v>
       </c>
-      <c r="I5">
+      <c r="I5" s="6">
         <v>29.573</v>
       </c>
-      <c r="J5">
+      <c r="J5" s="6">
         <f>86.743-I5-H5-G5</f>
         <v>29.769999999999992</v>
       </c>
-      <c r="K5">
+      <c r="K5" s="6">
         <v>21.28</v>
       </c>
-      <c r="L5">
+      <c r="L5" s="6">
         <v>22.151</v>
       </c>
-      <c r="M5">
+      <c r="M5" s="6">
         <v>25.83</v>
       </c>
-      <c r="N5">
+      <c r="N5" s="6">
         <f>101.804-M5-L5-K5</f>
         <v>32.543000000000006</v>
       </c>
-      <c r="O5">
+      <c r="O5" s="6">
         <v>16.513000000000002</v>
       </c>
-      <c r="P5">
+      <c r="P5" s="6">
         <v>20.129000000000001</v>
       </c>
-      <c r="Q5">
+      <c r="Q5" s="6">
         <v>22.286000000000001</v>
       </c>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="U5" s="6">
+        <f>SUM(C5:F5)</f>
+        <v>87.471000000000004</v>
+      </c>
+      <c r="V5" s="6">
+        <f t="shared" ref="V5:V24" si="0">SUM(G5:J5)</f>
+        <v>86.742999999999995</v>
+      </c>
+      <c r="W5" s="6">
+        <f t="shared" ref="W5:W24" si="1">SUM(K5:N5)</f>
+        <v>101.804</v>
+      </c>
+    </row>
+    <row r="6" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>15</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="6">
         <v>7.1440000000000001</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="6">
         <v>7.1040000000000001</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="6">
         <v>7.8940000000000001</v>
       </c>
-      <c r="F6">
+      <c r="F6" s="6">
         <f>29.394-E6-D6-C6</f>
         <v>7.2520000000000007</v>
       </c>
-      <c r="G6">
+      <c r="G6" s="6">
         <v>7.968</v>
       </c>
-      <c r="H6">
+      <c r="H6" s="6">
         <v>8.0210000000000008</v>
       </c>
-      <c r="I6">
+      <c r="I6" s="6">
         <v>8.3049999999999997</v>
       </c>
-      <c r="J6">
+      <c r="J6" s="6">
         <f>33.082-I6-H6-G6</f>
         <v>8.7880000000000003</v>
       </c>
-      <c r="K6">
+      <c r="K6" s="6">
         <v>10.026</v>
       </c>
-      <c r="L6">
+      <c r="L6" s="6">
         <v>10.342000000000001</v>
       </c>
-      <c r="M6">
+      <c r="M6" s="6">
         <v>10.853</v>
       </c>
-      <c r="N6">
+      <c r="N6" s="6">
         <f>43.069-M6-L6-K6</f>
         <v>11.848000000000003</v>
       </c>
-      <c r="O6">
+      <c r="O6" s="6">
         <v>12.845000000000001</v>
       </c>
-      <c r="P6">
+      <c r="P6" s="6">
         <v>14.016999999999999</v>
       </c>
-      <c r="Q6">
+      <c r="Q6" s="6">
         <v>16.414000000000001</v>
       </c>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="U6" s="6">
+        <f t="shared" ref="U6:U26" si="2">SUM(C6:F6)</f>
+        <v>29.394000000000005</v>
+      </c>
+      <c r="V6" s="6">
+        <f t="shared" si="0"/>
+        <v>33.082000000000001</v>
+      </c>
+      <c r="W6" s="6">
+        <f t="shared" si="1"/>
+        <v>43.069000000000003</v>
+      </c>
+    </row>
+    <row r="7" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>16</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="6">
         <v>71.45</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="6">
         <v>72.977999999999994</v>
       </c>
-      <c r="E7">
+      <c r="E7" s="6">
         <v>72.885000000000005</v>
       </c>
-      <c r="F7">
+      <c r="F7" s="6">
         <f>292.035-E7-D7-C7</f>
         <v>74.722000000000023</v>
       </c>
-      <c r="G7">
+      <c r="G7" s="6">
         <v>71.158000000000001</v>
       </c>
-      <c r="H7">
+      <c r="H7" s="6">
         <v>70.037999999999997</v>
       </c>
-      <c r="I7">
+      <c r="I7" s="6">
         <v>71.352000000000004</v>
       </c>
-      <c r="J7">
+      <c r="J7" s="6">
         <f>284.434-I7-H7-G7</f>
         <v>71.886000000000038</v>
       </c>
-      <c r="K7">
+      <c r="K7" s="6">
         <v>70.649000000000001</v>
       </c>
-      <c r="L7">
+      <c r="L7" s="6">
         <v>71.027000000000001</v>
       </c>
-      <c r="M7">
+      <c r="M7" s="6">
         <v>70.387</v>
       </c>
-      <c r="N7">
+      <c r="N7" s="6">
         <f>281.209-M7-L7-K7</f>
         <v>69.146000000000015</v>
       </c>
-      <c r="O7">
+      <c r="O7" s="6">
         <v>67.150999999999996</v>
       </c>
-      <c r="P7">
+      <c r="P7" s="6">
         <v>66.521000000000001</v>
       </c>
-      <c r="Q7">
+      <c r="Q7" s="6">
         <v>66.010000000000005</v>
       </c>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="U7" s="6">
+        <f t="shared" si="2"/>
+        <v>292.03500000000003</v>
+      </c>
+      <c r="V7" s="6">
+        <f t="shared" si="0"/>
+        <v>284.43400000000003</v>
+      </c>
+      <c r="W7" s="6">
+        <f t="shared" si="1"/>
+        <v>281.209</v>
+      </c>
+    </row>
+    <row r="8" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>17</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="6">
         <v>18.481000000000002</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="6">
         <v>17.533999999999999</v>
       </c>
-      <c r="E8">
+      <c r="E8" s="6">
         <v>19.942</v>
       </c>
-      <c r="F8">
+      <c r="F8" s="6">
         <f>77.427-E8-D8-C8</f>
         <v>21.470000000000006</v>
       </c>
-      <c r="G8">
+      <c r="G8" s="6">
         <v>19.713999999999999</v>
       </c>
-      <c r="H8">
+      <c r="H8" s="6">
         <v>17.709</v>
       </c>
-      <c r="I8">
+      <c r="I8" s="6">
         <v>18.178000000000001</v>
       </c>
-      <c r="J8">
+      <c r="J8" s="6">
         <f>-76.476-I8-H8-G8</f>
         <v>-132.077</v>
       </c>
-      <c r="K8">
+      <c r="K8" s="6">
         <v>20.946999999999999</v>
       </c>
-      <c r="L8">
+      <c r="L8" s="6">
         <v>21.831</v>
       </c>
-      <c r="M8">
+      <c r="M8" s="6">
         <v>20.923999999999999</v>
       </c>
-      <c r="N8">
+      <c r="N8" s="6">
         <f>84.68-M8-L8-K8</f>
         <v>20.978000000000012</v>
       </c>
-      <c r="O8">
+      <c r="O8" s="6">
         <v>22.768000000000001</v>
       </c>
-      <c r="P8">
+      <c r="P8" s="6">
         <v>21.405999999999999</v>
       </c>
-      <c r="Q8">
+      <c r="Q8" s="6">
         <v>20.65</v>
       </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="U8" s="6">
+        <f t="shared" si="2"/>
+        <v>77.427000000000007</v>
+      </c>
+      <c r="V8" s="6">
+        <f t="shared" si="0"/>
+        <v>-76.475999999999999</v>
+      </c>
+      <c r="W8" s="6">
+        <f t="shared" si="1"/>
+        <v>84.68</v>
+      </c>
+    </row>
+    <row r="9" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B9" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C9" s="2">
-        <f t="shared" ref="C9" si="0">SUM(C5:C8)</f>
+      <c r="C9" s="7">
+        <f t="shared" ref="C9" si="3">SUM(C5:C8)</f>
         <v>115.36600000000001</v>
       </c>
-      <c r="D9" s="2">
-        <f t="shared" ref="D9" si="1">SUM(D5:D8)</f>
+      <c r="D9" s="7">
+        <f t="shared" ref="D9" si="4">SUM(D5:D8)</f>
         <v>117.73699999999999</v>
       </c>
-      <c r="E9" s="2">
-        <f t="shared" ref="E9" si="2">SUM(E5:E8)</f>
+      <c r="E9" s="7">
+        <f t="shared" ref="E9" si="5">SUM(E5:E8)</f>
         <v>119.69300000000001</v>
       </c>
-      <c r="F9" s="2">
-        <f t="shared" ref="F9" si="3">SUM(F5:F8)</f>
+      <c r="F9" s="7">
+        <f t="shared" ref="F9" si="6">SUM(F5:F8)</f>
         <v>133.53100000000003</v>
       </c>
-      <c r="G9" s="2">
-        <f t="shared" ref="G9:P9" si="4">SUM(G5:G8)</f>
+      <c r="G9" s="7">
+        <f t="shared" ref="G9:P9" si="7">SUM(G5:G8)</f>
         <v>111.42400000000001</v>
       </c>
-      <c r="H9" s="2">
-        <f t="shared" si="4"/>
+      <c r="H9" s="7">
+        <f t="shared" si="7"/>
         <v>110.584</v>
       </c>
-      <c r="I9" s="2">
-        <f t="shared" si="4"/>
+      <c r="I9" s="7">
+        <f t="shared" si="7"/>
         <v>127.408</v>
       </c>
-      <c r="J9" s="2">
-        <f t="shared" si="4"/>
+      <c r="J9" s="7">
+        <f t="shared" si="7"/>
         <v>-21.632999999999967</v>
       </c>
-      <c r="K9" s="2">
-        <f t="shared" si="4"/>
+      <c r="K9" s="7">
+        <f t="shared" si="7"/>
         <v>122.902</v>
       </c>
-      <c r="L9" s="2">
-        <f t="shared" si="4"/>
+      <c r="L9" s="7">
+        <f t="shared" si="7"/>
         <v>125.35100000000001</v>
       </c>
-      <c r="M9" s="2">
-        <f t="shared" si="4"/>
+      <c r="M9" s="7">
+        <f t="shared" si="7"/>
         <v>127.994</v>
       </c>
-      <c r="N9" s="2">
-        <f t="shared" si="4"/>
+      <c r="N9" s="7">
+        <f t="shared" si="7"/>
         <v>134.51500000000004</v>
       </c>
-      <c r="O9" s="2">
-        <f t="shared" si="4"/>
+      <c r="O9" s="7">
+        <f t="shared" si="7"/>
         <v>119.277</v>
       </c>
-      <c r="P9" s="2">
-        <f t="shared" si="4"/>
+      <c r="P9" s="7">
+        <f t="shared" si="7"/>
         <v>122.07300000000001</v>
       </c>
-      <c r="Q9" s="2">
+      <c r="Q9" s="7">
         <f>SUM(Q5:Q8)</f>
         <v>125.36000000000001</v>
       </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="U9" s="7">
+        <f t="shared" si="2"/>
+        <v>486.32700000000011</v>
+      </c>
+      <c r="V9" s="7">
+        <f t="shared" si="0"/>
+        <v>327.78300000000002</v>
+      </c>
+      <c r="W9" s="7">
+        <f t="shared" si="1"/>
+        <v>510.76200000000006</v>
+      </c>
+    </row>
+    <row r="10" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>14</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="6">
         <v>0.51900000000000002</v>
       </c>
-      <c r="D10">
+      <c r="D10" s="6">
         <v>0.55200000000000005</v>
       </c>
-      <c r="E10">
+      <c r="E10" s="6">
         <v>0.52600000000000002</v>
       </c>
-      <c r="F10">
+      <c r="F10" s="6">
         <f>2.131-E10-D10-C10</f>
         <v>0.5339999999999997</v>
       </c>
-      <c r="G10">
+      <c r="G10" s="6">
         <v>0.67</v>
       </c>
-      <c r="H10">
+      <c r="H10" s="6">
         <v>0.51400000000000001</v>
       </c>
-      <c r="I10">
+      <c r="I10" s="6">
         <v>0.54500000000000004</v>
       </c>
-      <c r="J10">
+      <c r="J10" s="6">
         <f>2.293-I10-H10-G10</f>
         <v>0.56400000000000017</v>
       </c>
-      <c r="K10">
+      <c r="K10" s="6">
         <v>0.48799999999999999</v>
       </c>
-      <c r="L10">
+      <c r="L10" s="6">
         <v>0.41899999999999998</v>
       </c>
-      <c r="M10">
+      <c r="M10" s="6">
         <v>0.38300000000000001</v>
       </c>
-      <c r="N10">
+      <c r="N10" s="6">
         <f>1.721-M10-L10-K10</f>
         <v>0.43100000000000005</v>
       </c>
-      <c r="O10">
+      <c r="O10" s="6">
         <v>0.47699999999999998</v>
       </c>
-      <c r="P10">
+      <c r="P10" s="6">
         <v>0.43099999999999999</v>
       </c>
-      <c r="Q10">
+      <c r="Q10" s="6">
         <v>0.40600000000000003</v>
       </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="U10" s="6">
+        <f t="shared" si="2"/>
+        <v>2.1309999999999998</v>
+      </c>
+      <c r="V10" s="6">
+        <f t="shared" si="0"/>
+        <v>2.2930000000000001</v>
+      </c>
+      <c r="W10" s="6">
+        <f t="shared" si="1"/>
+        <v>1.7210000000000001</v>
+      </c>
+    </row>
+    <row r="11" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>15</v>
       </c>
-      <c r="C11">
+      <c r="C11" s="6">
         <v>3.5979999999999999</v>
       </c>
-      <c r="D11">
+      <c r="D11" s="6">
         <v>3.4889999999999999</v>
       </c>
-      <c r="E11">
+      <c r="E11" s="6">
         <v>3.8889999999999998</v>
       </c>
-      <c r="F11">
+      <c r="F11" s="6">
         <f>15.161-E11-D11-C11</f>
         <v>4.1850000000000005</v>
       </c>
-      <c r="G11">
+      <c r="G11" s="6">
         <v>4.0640000000000001</v>
       </c>
-      <c r="H11">
+      <c r="H11" s="6">
         <v>3.7919999999999998</v>
       </c>
-      <c r="I11">
+      <c r="I11" s="6">
         <v>3.6560000000000001</v>
       </c>
-      <c r="J11">
+      <c r="J11" s="6">
         <f>14.833-I11-H11-G11</f>
         <v>3.3209999999999997</v>
       </c>
-      <c r="K11">
+      <c r="K11" s="6">
         <v>3.6280000000000001</v>
       </c>
-      <c r="L11">
+      <c r="L11" s="6">
         <v>3.81</v>
       </c>
-      <c r="M11">
+      <c r="M11" s="6">
         <v>4.282</v>
       </c>
-      <c r="N11">
+      <c r="N11" s="6">
         <f>16.901-M11-L11-K11</f>
         <v>5.1809999999999992</v>
       </c>
-      <c r="O11">
+      <c r="O11" s="6">
         <v>5.41</v>
       </c>
-      <c r="P11">
+      <c r="P11" s="6">
         <v>5.4980000000000002</v>
       </c>
-      <c r="Q11">
+      <c r="Q11" s="6">
         <v>6.3949999999999996</v>
       </c>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="U11" s="6">
+        <f t="shared" si="2"/>
+        <v>15.161</v>
+      </c>
+      <c r="V11" s="6">
+        <f t="shared" si="0"/>
+        <v>14.833</v>
+      </c>
+      <c r="W11" s="6">
+        <f t="shared" si="1"/>
+        <v>16.901</v>
+      </c>
+    </row>
+    <row r="12" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>19</v>
       </c>
-      <c r="C12">
+      <c r="C12" s="6">
         <v>7.0670000000000002</v>
       </c>
-      <c r="D12">
+      <c r="D12" s="6">
         <v>7.7210000000000001</v>
       </c>
-      <c r="E12">
+      <c r="E12" s="6">
         <v>6.9219999999999997</v>
       </c>
-      <c r="F12">
+      <c r="F12" s="6">
         <f>28.317-E12-D12-C12</f>
         <v>6.6069999999999993</v>
       </c>
-      <c r="G12">
+      <c r="G12" s="6">
         <v>6.718</v>
       </c>
-      <c r="H12">
+      <c r="H12" s="6">
         <v>6.8369999999999997</v>
       </c>
-      <c r="I12">
+      <c r="I12" s="6">
         <v>5.6790000000000003</v>
       </c>
-      <c r="J12">
+      <c r="J12" s="6">
         <f>23.977-I12-H12-G12</f>
         <v>4.7430000000000021</v>
       </c>
-      <c r="K12">
+      <c r="K12" s="6">
         <v>4.8120000000000003</v>
       </c>
-      <c r="L12">
+      <c r="L12" s="6">
         <v>4.8620000000000001</v>
       </c>
-      <c r="M12">
+      <c r="M12" s="6">
         <v>4.6790000000000003</v>
       </c>
-      <c r="N12">
+      <c r="N12" s="6">
         <f>19.254-M12-L12-K12</f>
         <v>4.9010000000000007</v>
       </c>
-      <c r="O12">
+      <c r="O12" s="6">
         <v>5.1909999999999998</v>
       </c>
-      <c r="P12">
+      <c r="P12" s="6">
         <v>5.1269999999999998</v>
       </c>
-      <c r="Q12">
+      <c r="Q12" s="6">
         <v>5.2240000000000002</v>
       </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="U12" s="6">
+        <f t="shared" si="2"/>
+        <v>28.317</v>
+      </c>
+      <c r="V12" s="6">
+        <f t="shared" si="0"/>
+        <v>23.977000000000004</v>
+      </c>
+      <c r="W12" s="6">
+        <f t="shared" si="1"/>
+        <v>19.254000000000001</v>
+      </c>
+    </row>
+    <row r="13" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>17</v>
       </c>
-      <c r="C13">
+      <c r="C13" s="6">
         <v>14.989000000000001</v>
       </c>
-      <c r="D13">
+      <c r="D13" s="6">
         <v>13.587999999999999</v>
       </c>
-      <c r="E13">
+      <c r="E13" s="6">
         <v>12.478</v>
       </c>
-      <c r="F13">
+      <c r="F13" s="6">
         <f>54.365-E13-D13-C13</f>
         <v>13.309999999999999</v>
       </c>
-      <c r="G13">
+      <c r="G13" s="6">
         <v>13.093</v>
       </c>
-      <c r="H13">
+      <c r="H13" s="6">
         <v>12.846</v>
       </c>
-      <c r="I13">
+      <c r="I13" s="6">
         <v>11.856</v>
       </c>
-      <c r="J13">
+      <c r="J13" s="6">
         <f>49.952-I13-H13-G13</f>
         <v>12.156999999999996</v>
       </c>
-      <c r="K13">
+      <c r="K13" s="6">
         <v>13.621</v>
       </c>
-      <c r="L13">
+      <c r="L13" s="6">
         <v>13.946999999999999</v>
       </c>
-      <c r="M13">
+      <c r="M13" s="6">
         <v>12.975</v>
       </c>
-      <c r="N13">
+      <c r="N13" s="6">
         <f>54.033-M13-L13-K13</f>
         <v>13.49</v>
       </c>
-      <c r="O13">
+      <c r="O13" s="6">
         <v>14.599</v>
       </c>
-      <c r="P13">
+      <c r="P13" s="6">
         <v>14.148</v>
       </c>
-      <c r="Q13">
+      <c r="Q13" s="6">
         <v>13.36</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="U13" s="6">
+        <f t="shared" si="2"/>
+        <v>54.364999999999995</v>
+      </c>
+      <c r="V13" s="6">
+        <f t="shared" si="0"/>
+        <v>49.951999999999998</v>
+      </c>
+      <c r="W13" s="6">
+        <f t="shared" si="1"/>
+        <v>54.033000000000001</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B14" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C14" s="2">
-        <f t="shared" ref="C14" si="5">SUM(C10:C13)</f>
+      <c r="C14" s="7">
+        <f t="shared" ref="C14" si="8">SUM(C10:C13)</f>
         <v>26.173000000000002</v>
       </c>
-      <c r="D14" s="2">
-        <f t="shared" ref="D14" si="6">SUM(D10:D13)</f>
+      <c r="D14" s="7">
+        <f t="shared" ref="D14" si="9">SUM(D10:D13)</f>
         <v>25.35</v>
       </c>
-      <c r="E14" s="2">
-        <f t="shared" ref="E14" si="7">SUM(E10:E13)</f>
+      <c r="E14" s="7">
+        <f t="shared" ref="E14" si="10">SUM(E10:E13)</f>
         <v>23.814999999999998</v>
       </c>
-      <c r="F14" s="2">
-        <f t="shared" ref="F14" si="8">SUM(F10:F13)</f>
+      <c r="F14" s="7">
+        <f t="shared" ref="F14" si="11">SUM(F10:F13)</f>
         <v>24.635999999999999</v>
       </c>
-      <c r="G14" s="2">
-        <f t="shared" ref="G14:P14" si="9">SUM(G10:G13)</f>
+      <c r="G14" s="7">
+        <f t="shared" ref="G14:P14" si="12">SUM(G10:G13)</f>
         <v>24.545000000000002</v>
       </c>
-      <c r="H14" s="2">
-        <f t="shared" si="9"/>
+      <c r="H14" s="7">
+        <f t="shared" si="12"/>
         <v>23.989000000000001</v>
       </c>
-      <c r="I14" s="2">
-        <f t="shared" si="9"/>
+      <c r="I14" s="7">
+        <f t="shared" si="12"/>
         <v>21.736000000000001</v>
       </c>
-      <c r="J14" s="2">
-        <f t="shared" si="9"/>
+      <c r="J14" s="7">
+        <f t="shared" si="12"/>
         <v>20.784999999999997</v>
       </c>
-      <c r="K14" s="2">
-        <f t="shared" si="9"/>
+      <c r="K14" s="7">
+        <f t="shared" si="12"/>
         <v>22.548999999999999</v>
       </c>
-      <c r="L14" s="2">
-        <f t="shared" si="9"/>
+      <c r="L14" s="7">
+        <f t="shared" si="12"/>
         <v>23.038</v>
       </c>
-      <c r="M14" s="2">
-        <f t="shared" si="9"/>
+      <c r="M14" s="7">
+        <f t="shared" si="12"/>
         <v>22.319000000000003</v>
       </c>
-      <c r="N14" s="2">
-        <f t="shared" si="9"/>
+      <c r="N14" s="7">
+        <f t="shared" si="12"/>
         <v>24.003</v>
       </c>
-      <c r="O14" s="2">
-        <f t="shared" si="9"/>
+      <c r="O14" s="7">
+        <f t="shared" si="12"/>
         <v>25.677</v>
       </c>
-      <c r="P14" s="2">
-        <f t="shared" si="9"/>
+      <c r="P14" s="7">
+        <f t="shared" si="12"/>
         <v>25.204000000000001</v>
       </c>
-      <c r="Q14" s="2">
+      <c r="Q14" s="7">
         <f>SUM(Q10:Q13)</f>
         <v>25.384999999999998</v>
       </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="U14" s="6">
+        <f t="shared" si="2"/>
+        <v>99.97399999999999</v>
+      </c>
+      <c r="V14" s="6">
+        <f t="shared" si="0"/>
+        <v>91.055000000000007</v>
+      </c>
+      <c r="W14" s="6">
+        <f t="shared" si="1"/>
+        <v>91.909000000000006</v>
+      </c>
+    </row>
+    <row r="15" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>21</v>
       </c>
-      <c r="C15">
+      <c r="C15" s="6">
         <v>48.76</v>
       </c>
-      <c r="D15">
+      <c r="D15" s="6">
         <v>48.273000000000003</v>
       </c>
-      <c r="E15">
+      <c r="E15" s="6">
         <v>43.935000000000002</v>
       </c>
-      <c r="F15">
+      <c r="F15" s="6">
         <f>191.235-E15-D15-C15</f>
         <v>50.267000000000017</v>
       </c>
-      <c r="G15">
+      <c r="G15" s="6">
         <v>39.518000000000001</v>
       </c>
-      <c r="H15">
+      <c r="H15" s="6">
         <v>34.951000000000001</v>
       </c>
-      <c r="I15">
+      <c r="I15" s="6">
         <v>35.33</v>
       </c>
-      <c r="J15">
+      <c r="J15" s="6">
         <f>148.91-I15-H15-G15</f>
         <v>39.11099999999999</v>
       </c>
-      <c r="K15">
+      <c r="K15" s="6">
         <v>38.198</v>
       </c>
-      <c r="L15">
+      <c r="L15" s="6">
         <v>40.320999999999998</v>
       </c>
-      <c r="M15">
+      <c r="M15" s="6">
         <v>38.209000000000003</v>
       </c>
-      <c r="N15">
+      <c r="N15" s="6">
         <f>160.141-M15-L15-K15</f>
         <v>43.41299999999999</v>
       </c>
-      <c r="O15">
+      <c r="O15" s="6">
         <v>33.24</v>
       </c>
-      <c r="P15">
+      <c r="P15" s="6">
         <v>36.862000000000002</v>
       </c>
-      <c r="Q15">
+      <c r="Q15" s="6">
         <v>35.408999999999999</v>
       </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="U15" s="6">
+        <f t="shared" si="2"/>
+        <v>191.23500000000004</v>
+      </c>
+      <c r="V15" s="6">
+        <f t="shared" si="0"/>
+        <v>148.90999999999997</v>
+      </c>
+      <c r="W15" s="6">
+        <f t="shared" si="1"/>
+        <v>160.14099999999999</v>
+      </c>
+    </row>
+    <row r="16" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>22</v>
       </c>
-      <c r="C16">
+      <c r="C16" s="6">
         <v>28.215</v>
       </c>
-      <c r="D16">
+      <c r="D16" s="6">
         <v>27.763999999999999</v>
       </c>
-      <c r="E16">
+      <c r="E16" s="6">
         <v>27.457000000000001</v>
       </c>
-      <c r="F16">
+      <c r="F16" s="6">
         <f>109.423-E16-D16-C16</f>
         <v>25.987000000000013</v>
       </c>
-      <c r="G16">
+      <c r="G16" s="6">
         <v>26.100999999999999</v>
       </c>
-      <c r="H16">
+      <c r="H16" s="6">
         <v>25.867000000000001</v>
       </c>
-      <c r="I16">
+      <c r="I16" s="6">
         <v>26.638000000000002</v>
       </c>
-      <c r="J16">
+      <c r="J16" s="6">
         <f>103.561-I16-H16-G16</f>
         <v>24.954999999999998</v>
       </c>
-      <c r="K16">
+      <c r="K16" s="6">
         <v>29.483000000000001</v>
       </c>
-      <c r="L16">
+      <c r="L16" s="6">
         <v>28.547999999999998</v>
       </c>
-      <c r="M16">
+      <c r="M16" s="6">
         <v>28.210999999999999</v>
       </c>
-      <c r="N16">
+      <c r="N16" s="6">
         <f>117.117-M16-L16-K16</f>
         <v>30.875000000000004</v>
       </c>
-      <c r="O16">
+      <c r="O16" s="6">
         <v>33.523000000000003</v>
       </c>
-      <c r="P16">
+      <c r="P16" s="6">
         <v>31.79</v>
       </c>
-      <c r="Q16">
+      <c r="Q16" s="6">
         <v>30.498000000000001</v>
       </c>
-    </row>
-    <row r="17" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="U16" s="6">
+        <f t="shared" si="2"/>
+        <v>109.42300000000002</v>
+      </c>
+      <c r="V16" s="6">
+        <f t="shared" si="0"/>
+        <v>103.56100000000001</v>
+      </c>
+      <c r="W16" s="6">
+        <f t="shared" si="1"/>
+        <v>117.11699999999999</v>
+      </c>
+    </row>
+    <row r="17" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
         <v>23</v>
       </c>
-      <c r="C17">
+      <c r="C17" s="6">
         <v>22.603999999999999</v>
       </c>
-      <c r="D17">
+      <c r="D17" s="6">
         <v>21.18</v>
       </c>
-      <c r="E17">
+      <c r="E17" s="6">
         <v>19.899999999999999</v>
       </c>
-      <c r="F17">
+      <c r="F17" s="6">
         <f>86.697-E17-D17-C17</f>
         <v>23.012999999999998</v>
       </c>
-      <c r="G17">
+      <c r="G17" s="6">
         <v>21.332000000000001</v>
       </c>
-      <c r="H17">
+      <c r="H17" s="6">
         <v>19.449000000000002</v>
       </c>
-      <c r="I17">
+      <c r="I17" s="6">
         <v>19.733000000000001</v>
       </c>
-      <c r="J17">
+      <c r="J17" s="6">
         <f>80.136-I17-H17-G17</f>
         <v>19.621999999999993</v>
       </c>
-      <c r="K17">
+      <c r="K17" s="6">
         <v>21.728999999999999</v>
       </c>
-      <c r="L17">
+      <c r="L17" s="6">
         <v>22.917000000000002</v>
       </c>
-      <c r="M17">
+      <c r="M17" s="6">
         <v>23.751000000000001</v>
       </c>
-      <c r="N17">
+      <c r="N17" s="6">
         <f>95.501-M17-L17-K17</f>
         <v>27.103999999999999</v>
       </c>
-      <c r="O17">
+      <c r="O17" s="6">
         <v>26.706</v>
       </c>
-      <c r="P17">
+      <c r="P17" s="6">
         <v>28.501999999999999</v>
       </c>
-      <c r="Q17">
+      <c r="Q17" s="6">
         <v>27.283000000000001</v>
       </c>
-    </row>
-    <row r="18" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="U17" s="6">
+        <f t="shared" si="2"/>
+        <v>86.697000000000003</v>
+      </c>
+      <c r="V17" s="6">
+        <f t="shared" si="0"/>
+        <v>80.135999999999996</v>
+      </c>
+      <c r="W17" s="6">
+        <f t="shared" si="1"/>
+        <v>95.501000000000005</v>
+      </c>
+    </row>
+    <row r="18" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
         <v>24</v>
       </c>
-      <c r="C18">
-        <v>0</v>
-      </c>
-      <c r="D18">
-        <v>0</v>
-      </c>
-      <c r="E18">
-        <v>0</v>
-      </c>
-      <c r="F18">
-        <v>0</v>
-      </c>
-      <c r="G18">
-        <v>0</v>
-      </c>
-      <c r="H18">
-        <v>0</v>
-      </c>
-      <c r="I18">
+      <c r="C18" s="6">
+        <v>0</v>
+      </c>
+      <c r="D18" s="6">
+        <v>0</v>
+      </c>
+      <c r="E18" s="6">
+        <v>0</v>
+      </c>
+      <c r="F18" s="6">
+        <v>0</v>
+      </c>
+      <c r="G18" s="6">
+        <v>0</v>
+      </c>
+      <c r="H18" s="6">
+        <v>0</v>
+      </c>
+      <c r="I18" s="6">
         <v>44.241999999999997</v>
       </c>
-      <c r="J18">
+      <c r="J18" s="6">
         <f>70.698-I18-H18-G18</f>
         <v>26.455999999999996</v>
       </c>
-      <c r="K18">
+      <c r="K18" s="6">
         <v>194.095</v>
       </c>
-      <c r="L18">
+      <c r="L18" s="6">
         <v>424.774</v>
       </c>
-      <c r="M18">
+      <c r="M18" s="6">
         <v>65.165000000000006</v>
       </c>
-      <c r="N18">
+      <c r="N18" s="6">
         <f>830.621-M18-L18-K18</f>
         <v>146.58700000000002</v>
       </c>
-      <c r="O18">
+      <c r="O18" s="6">
         <v>170.09100000000001</v>
       </c>
-      <c r="P18">
+      <c r="P18" s="6">
         <v>917.83799999999997</v>
       </c>
-      <c r="Q18">
+      <c r="Q18" s="6">
         <v>0.72699999999999998</v>
       </c>
-    </row>
-    <row r="19" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="U18" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="V18" s="6">
+        <f t="shared" si="0"/>
+        <v>70.697999999999993</v>
+      </c>
+      <c r="W18" s="6">
+        <f t="shared" si="1"/>
+        <v>830.62099999999998</v>
+      </c>
+    </row>
+    <row r="19" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B19" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C19" s="2">
-        <f t="shared" ref="C19" si="10">SUM(C15:C18)</f>
+      <c r="C19" s="7">
+        <f t="shared" ref="C19" si="13">SUM(C15:C18)</f>
         <v>99.578999999999994</v>
       </c>
-      <c r="D19" s="2">
-        <f t="shared" ref="D19" si="11">SUM(D15:D18)</f>
+      <c r="D19" s="7">
+        <f t="shared" ref="D19" si="14">SUM(D15:D18)</f>
         <v>97.217000000000013</v>
       </c>
-      <c r="E19" s="2">
-        <f t="shared" ref="E19" si="12">SUM(E15:E18)</f>
+      <c r="E19" s="7">
+        <f t="shared" ref="E19" si="15">SUM(E15:E18)</f>
         <v>91.292000000000002</v>
       </c>
-      <c r="F19" s="2">
-        <f t="shared" ref="F19" si="13">SUM(F15:F18)</f>
+      <c r="F19" s="7">
+        <f t="shared" ref="F19" si="16">SUM(F15:F18)</f>
         <v>99.267000000000024</v>
       </c>
-      <c r="G19" s="2">
-        <f t="shared" ref="G19:P19" si="14">SUM(G15:G18)</f>
+      <c r="G19" s="7">
+        <f t="shared" ref="G19:P19" si="17">SUM(G15:G18)</f>
         <v>86.950999999999993</v>
       </c>
-      <c r="H19" s="2">
-        <f t="shared" si="14"/>
+      <c r="H19" s="7">
+        <f t="shared" si="17"/>
         <v>80.266999999999996</v>
       </c>
-      <c r="I19" s="2">
-        <f t="shared" si="14"/>
+      <c r="I19" s="7">
+        <f t="shared" si="17"/>
         <v>125.94300000000001</v>
       </c>
-      <c r="J19" s="2">
-        <f t="shared" si="14"/>
+      <c r="J19" s="7">
+        <f t="shared" si="17"/>
         <v>110.14399999999998</v>
       </c>
-      <c r="K19" s="2">
-        <f t="shared" si="14"/>
+      <c r="K19" s="7">
+        <f t="shared" si="17"/>
         <v>283.505</v>
       </c>
-      <c r="L19" s="2">
-        <f t="shared" si="14"/>
+      <c r="L19" s="7">
+        <f t="shared" si="17"/>
         <v>516.55999999999995</v>
       </c>
-      <c r="M19" s="2">
-        <f t="shared" si="14"/>
+      <c r="M19" s="7">
+        <f t="shared" si="17"/>
         <v>155.33600000000001</v>
       </c>
-      <c r="N19" s="2">
-        <f t="shared" si="14"/>
+      <c r="N19" s="7">
+        <f t="shared" si="17"/>
         <v>247.97900000000001</v>
       </c>
-      <c r="O19" s="2">
-        <f t="shared" si="14"/>
+      <c r="O19" s="7">
+        <f t="shared" si="17"/>
         <v>263.56</v>
       </c>
-      <c r="P19" s="2">
-        <f t="shared" si="14"/>
+      <c r="P19" s="7">
+        <f t="shared" si="17"/>
         <v>1014.992</v>
       </c>
-      <c r="Q19" s="2">
+      <c r="Q19" s="7">
         <f>SUM(Q15:Q18)</f>
         <v>93.917000000000002</v>
       </c>
-    </row>
-    <row r="20" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="U19" s="7">
+        <f t="shared" si="2"/>
+        <v>387.35500000000002</v>
+      </c>
+      <c r="V19" s="7">
+        <f t="shared" si="0"/>
+        <v>403.30499999999995</v>
+      </c>
+      <c r="W19" s="7">
+        <f t="shared" si="1"/>
+        <v>1203.3799999999999</v>
+      </c>
+    </row>
+    <row r="20" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B20" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="C20" s="2">
-        <f t="shared" ref="C20" si="15">C9-C14-C19</f>
+      <c r="C20" s="7">
+        <f t="shared" ref="C20" si="18">C9-C14-C19</f>
         <v>-10.385999999999981</v>
       </c>
-      <c r="D20" s="2">
-        <f t="shared" ref="D20" si="16">D9-D14-D19</f>
+      <c r="D20" s="7">
+        <f t="shared" ref="D20" si="19">D9-D14-D19</f>
         <v>-4.8300000000000125</v>
       </c>
-      <c r="E20" s="2">
-        <f t="shared" ref="E20" si="17">E9-E14-E19</f>
+      <c r="E20" s="7">
+        <f t="shared" ref="E20" si="20">E9-E14-E19</f>
         <v>4.5860000000000127</v>
       </c>
-      <c r="F20" s="2">
-        <f t="shared" ref="F20" si="18">F9-F14-F19</f>
+      <c r="F20" s="7">
+        <f t="shared" ref="F20" si="21">F9-F14-F19</f>
         <v>9.6280000000000143</v>
       </c>
-      <c r="G20" s="2">
-        <f t="shared" ref="G20:P20" si="19">G9-G14-G19</f>
+      <c r="G20" s="7">
+        <f t="shared" ref="G20:P20" si="22">G9-G14-G19</f>
         <v>-7.1999999999988518E-2</v>
       </c>
-      <c r="H20" s="2">
-        <f t="shared" si="19"/>
+      <c r="H20" s="7">
+        <f t="shared" si="22"/>
         <v>6.328000000000003</v>
       </c>
-      <c r="I20" s="2">
-        <f t="shared" si="19"/>
+      <c r="I20" s="7">
+        <f t="shared" si="22"/>
         <v>-20.271000000000015</v>
       </c>
-      <c r="J20" s="2">
-        <f t="shared" si="19"/>
+      <c r="J20" s="7">
+        <f t="shared" si="22"/>
         <v>-152.56199999999995</v>
       </c>
-      <c r="K20" s="2">
-        <f t="shared" si="19"/>
+      <c r="K20" s="7">
+        <f t="shared" si="22"/>
         <v>-183.15199999999999</v>
       </c>
-      <c r="L20" s="2">
-        <f t="shared" si="19"/>
+      <c r="L20" s="7">
+        <f t="shared" si="22"/>
         <v>-414.24699999999996</v>
       </c>
-      <c r="M20" s="2">
-        <f t="shared" si="19"/>
+      <c r="M20" s="7">
+        <f t="shared" si="22"/>
         <v>-49.661000000000016</v>
       </c>
-      <c r="N20" s="2">
-        <f t="shared" si="19"/>
+      <c r="N20" s="7">
+        <f t="shared" si="22"/>
         <v>-137.46699999999998</v>
       </c>
-      <c r="O20" s="2">
-        <f t="shared" si="19"/>
+      <c r="O20" s="7">
+        <f t="shared" si="22"/>
         <v>-169.96</v>
       </c>
-      <c r="P20" s="2">
-        <f t="shared" si="19"/>
+      <c r="P20" s="7">
+        <f t="shared" si="22"/>
         <v>-918.12299999999993</v>
       </c>
-      <c r="Q20" s="2">
+      <c r="Q20" s="7">
         <f>Q9-Q14-Q19</f>
         <v>6.0580000000000211</v>
       </c>
-    </row>
-    <row r="21" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="U20" s="7">
+        <f t="shared" si="2"/>
+        <v>-1.0019999999999669</v>
+      </c>
+      <c r="V20" s="7">
+        <f t="shared" si="0"/>
+        <v>-166.57699999999994</v>
+      </c>
+      <c r="W20" s="7">
+        <f t="shared" si="1"/>
+        <v>-784.52699999999993</v>
+      </c>
+    </row>
+    <row r="21" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
         <v>53</v>
       </c>
-      <c r="C21">
+      <c r="C21" s="6">
         <v>2.5659999999999998</v>
       </c>
-      <c r="D21">
+      <c r="D21" s="6">
         <v>3.0129999999999999</v>
       </c>
-      <c r="E21">
+      <c r="E21" s="6">
         <v>2.9409999999999998</v>
       </c>
-      <c r="F21">
+      <c r="F21" s="6">
         <f>10.909-E21-D21-C21</f>
         <v>2.3890000000000011</v>
       </c>
-      <c r="G21">
+      <c r="G21" s="6">
         <v>1.855</v>
       </c>
-      <c r="H21">
+      <c r="H21" s="6">
         <v>0.56299999999999994</v>
       </c>
-      <c r="I21">
+      <c r="I21" s="6">
         <v>0.20899999999999999</v>
       </c>
-      <c r="J21">
+      <c r="J21" s="6">
         <f>0.71-I21-H21-G21</f>
         <v>-1.9169999999999998</v>
       </c>
-      <c r="K21">
+      <c r="K21" s="6">
         <v>-2.3959999999999999</v>
       </c>
-      <c r="L21">
+      <c r="L21" s="6">
         <v>-4.4009999999999998</v>
       </c>
-      <c r="M21">
+      <c r="M21" s="6">
         <v>-10.723000000000001</v>
       </c>
-      <c r="N21">
+      <c r="N21" s="6">
         <f>-29.149-M21-L21-K21</f>
         <v>-11.629000000000001</v>
       </c>
-      <c r="O21">
+      <c r="O21" s="6">
         <v>-11.039</v>
       </c>
-      <c r="P21">
+      <c r="P21" s="6">
         <v>-13.186999999999999</v>
       </c>
-      <c r="Q21">
+      <c r="Q21" s="6">
         <v>-14.073</v>
       </c>
-    </row>
-    <row r="22" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="U21" s="6">
+        <f t="shared" si="2"/>
+        <v>10.909000000000001</v>
+      </c>
+      <c r="V21" s="6">
+        <f t="shared" si="0"/>
+        <v>0.71000000000000041</v>
+      </c>
+      <c r="W21" s="6">
+        <f t="shared" si="1"/>
+        <v>-29.149000000000001</v>
+      </c>
+    </row>
+    <row r="22" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
         <v>26</v>
       </c>
-      <c r="C22">
+      <c r="C22" s="6">
         <v>-0.59599999999999997</v>
       </c>
-      <c r="D22">
+      <c r="D22" s="6">
         <v>29.431000000000001</v>
       </c>
-      <c r="E22">
+      <c r="E22" s="6">
         <v>1.8819999999999999</v>
       </c>
-      <c r="F22">
+      <c r="F22" s="6">
         <f>28.356-E22-D22-C22</f>
         <v>-2.3610000000000007</v>
       </c>
-      <c r="G22">
+      <c r="G22" s="6">
         <v>0.434</v>
       </c>
-      <c r="H22">
+      <c r="H22" s="6">
         <v>-1.9950000000000001</v>
       </c>
-      <c r="I22">
+      <c r="I22" s="6">
         <v>-2.9710000000000001</v>
       </c>
-      <c r="J22">
+      <c r="J22" s="6">
         <f>-7.038-I22-H22-G22</f>
         <v>-2.5060000000000002</v>
       </c>
-      <c r="K22">
+      <c r="K22" s="6">
         <v>1.264</v>
       </c>
-      <c r="L22">
+      <c r="L22" s="6">
         <v>-0.89700000000000002</v>
       </c>
-      <c r="M22">
+      <c r="M22" s="6">
         <v>1.264</v>
       </c>
-      <c r="N22">
+      <c r="N22" s="6">
         <f>2.289-M22-L22-K22</f>
         <v>0.65800000000000014</v>
       </c>
-      <c r="O22">
+      <c r="O22" s="6">
         <v>2.2250000000000001</v>
       </c>
-      <c r="P22">
+      <c r="P22" s="6">
         <v>5.12</v>
       </c>
-      <c r="Q22">
+      <c r="Q22" s="6">
         <v>4.8970000000000002</v>
       </c>
-    </row>
-    <row r="23" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="U22" s="6">
+        <f t="shared" si="2"/>
+        <v>28.356000000000002</v>
+      </c>
+      <c r="V22" s="6">
+        <f t="shared" si="0"/>
+        <v>-7.0380000000000003</v>
+      </c>
+      <c r="W22" s="6">
+        <f t="shared" si="1"/>
+        <v>2.2890000000000001</v>
+      </c>
+    </row>
+    <row r="23" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
         <v>27</v>
       </c>
-      <c r="C23">
+      <c r="C23" s="6">
         <v>-0.51</v>
       </c>
-      <c r="D23">
+      <c r="D23" s="6">
         <v>7.22</v>
       </c>
-      <c r="E23">
+      <c r="E23" s="6">
         <v>-0.29099999999999998</v>
       </c>
-      <c r="F23">
+      <c r="F23" s="6">
         <f>3.908-E23-D23-C23</f>
         <v>-2.5110000000000001</v>
       </c>
-      <c r="G23">
+      <c r="G23" s="6">
         <v>1.56</v>
       </c>
-      <c r="H23">
+      <c r="H23" s="6">
         <v>1.5089999999999999</v>
       </c>
-      <c r="I23">
+      <c r="I23" s="6">
         <v>-8.8040000000000003</v>
       </c>
-      <c r="J23">
+      <c r="J23" s="6">
         <f>-12.429-I23-H23-G23</f>
         <v>-6.6940000000000008</v>
       </c>
-      <c r="K23">
+      <c r="K23" s="6">
         <v>-74.263999999999996</v>
       </c>
-      <c r="L23">
+      <c r="L23" s="6">
         <v>-120.19799999999999</v>
       </c>
-      <c r="M23">
+      <c r="M23" s="6">
         <v>-22.984000000000002</v>
       </c>
-      <c r="N23">
+      <c r="N23" s="6">
         <f>-275.909-M23-L23-K23</f>
         <v>-58.46299999999998</v>
       </c>
-      <c r="O23">
+      <c r="O23" s="6">
         <v>-48.023000000000003</v>
       </c>
-      <c r="P23">
+      <c r="P23" s="6">
         <v>136.108</v>
       </c>
-      <c r="Q23">
+      <c r="Q23" s="6">
         <v>23.960999999999999</v>
       </c>
-    </row>
-    <row r="24" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="U23" s="6">
+        <f t="shared" si="2"/>
+        <v>3.9079999999999995</v>
+      </c>
+      <c r="V23" s="6">
+        <f t="shared" si="0"/>
+        <v>-12.429000000000002</v>
+      </c>
+      <c r="W23" s="6">
+        <f t="shared" si="1"/>
+        <v>-275.90899999999999</v>
+      </c>
+    </row>
+    <row r="24" spans="1:23" s="25" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A24"/>
       <c r="B24" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C24" s="2">
-        <f t="shared" ref="C24:F24" si="20">C20+C21+C22-C23</f>
+      <c r="C24" s="7">
+        <f t="shared" ref="C24:F24" si="23">C20+C21+C22-C23</f>
         <v>-7.905999999999981</v>
       </c>
-      <c r="D24" s="2">
-        <f t="shared" si="20"/>
+      <c r="D24" s="7">
+        <f t="shared" si="23"/>
         <v>20.393999999999991</v>
       </c>
-      <c r="E24" s="2">
-        <f t="shared" si="20"/>
+      <c r="E24" s="7">
+        <f t="shared" si="23"/>
         <v>9.7000000000000135</v>
       </c>
-      <c r="F24" s="2">
-        <f t="shared" si="20"/>
+      <c r="F24" s="7">
+        <f t="shared" si="23"/>
         <v>12.167000000000016</v>
       </c>
-      <c r="G24" s="2">
+      <c r="G24" s="7">
         <f>G20+G21+G22-G23</f>
         <v>0.65700000000001157</v>
       </c>
-      <c r="H24" s="2">
+      <c r="H24" s="7">
         <f>H20+H21+H22-H23</f>
         <v>3.3870000000000027</v>
       </c>
-      <c r="I24" s="2">
+      <c r="I24" s="7">
         <f>I20+I21+I22-I23</f>
         <v>-14.229000000000015</v>
       </c>
-      <c r="J24" s="2">
+      <c r="J24" s="7">
         <f>J20+J21+J22-J23</f>
         <v>-150.29099999999997</v>
       </c>
-      <c r="K24" s="2">
+      <c r="K24" s="7">
         <f>K20+K21+K22-K23</f>
         <v>-110.01999999999997</v>
       </c>
-      <c r="L24" s="2">
+      <c r="L24" s="7">
         <f>L20+L21+L22-L23</f>
         <v>-299.34699999999998</v>
       </c>
-      <c r="M24" s="2">
+      <c r="M24" s="7">
         <f>M20+M21+M22-M23</f>
         <v>-36.13600000000001</v>
       </c>
-      <c r="N24" s="2">
+      <c r="N24" s="7">
         <f>N20+N21+N22-N23</f>
         <v>-89.975000000000009</v>
       </c>
-      <c r="O24" s="2">
+      <c r="O24" s="7">
         <f>O20+O21+O22-O23</f>
         <v>-130.751</v>
       </c>
-      <c r="P24" s="2">
+      <c r="P24" s="7">
         <f>P20+P21+P22-P23</f>
         <v>-1062.298</v>
       </c>
-      <c r="Q24" s="2">
+      <c r="Q24" s="7">
         <f>Q20+Q21+Q22-Q23</f>
         <v>-27.078999999999979</v>
       </c>
-    </row>
-    <row r="25" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="R24"/>
+      <c r="S24"/>
+      <c r="T24"/>
+      <c r="U24" s="23">
+        <f t="shared" si="2"/>
+        <v>34.35500000000004</v>
+      </c>
+      <c r="V24" s="24">
+        <f>SUM(G24:J24)</f>
+        <v>-160.47599999999997</v>
+      </c>
+      <c r="W24" s="24">
+        <f>SUM(K24:N24)</f>
+        <v>-535.47799999999995</v>
+      </c>
+    </row>
+    <row r="25" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
         <v>29</v>
       </c>
-      <c r="C25">
-        <f t="shared" ref="C25" si="21">C24/C26</f>
+      <c r="C25" s="8">
+        <f t="shared" ref="C25" si="24">C24/C26</f>
         <v>-0.76549186676994396</v>
       </c>
-      <c r="D25">
-        <f t="shared" ref="D25" si="22">D24/D26</f>
+      <c r="D25" s="8">
+        <f t="shared" ref="D25" si="25">D24/D26</f>
         <v>1.9780795344325888</v>
       </c>
-      <c r="E25">
-        <f t="shared" ref="E25" si="23">E24/E26</f>
+      <c r="E25" s="8">
+        <f t="shared" ref="E25" si="26">E24/E26</f>
         <v>0.94092540498593602</v>
       </c>
-      <c r="F25">
-        <f t="shared" ref="F25" si="24">F24/F26</f>
+      <c r="F25" s="8">
+        <f t="shared" ref="F25" si="27">F24/F26</f>
         <v>1.1780596436870658</v>
       </c>
-      <c r="G25">
-        <f t="shared" ref="G25:P25" si="25">G24/G26</f>
+      <c r="G25" s="8">
+        <f t="shared" ref="G25:P25" si="28">G24/G26</f>
         <v>6.5496959425781237E-2</v>
       </c>
-      <c r="H25">
-        <f t="shared" si="25"/>
+      <c r="H25" s="8">
+        <f t="shared" si="28"/>
         <v>0.34770557437634769</v>
       </c>
-      <c r="I25">
-        <f t="shared" si="25"/>
+      <c r="I25" s="8">
+        <f t="shared" si="28"/>
         <v>-1.4797212978369401</v>
       </c>
-      <c r="J25">
-        <f t="shared" si="25"/>
+      <c r="J25" s="8">
+        <f t="shared" si="28"/>
         <v>-15.519516728624533</v>
       </c>
-      <c r="K25">
-        <f t="shared" si="25"/>
+      <c r="K25" s="8">
+        <f t="shared" si="28"/>
         <v>-11.40458173525448</v>
       </c>
-      <c r="L25">
-        <f t="shared" si="25"/>
+      <c r="L25" s="8">
+        <f t="shared" si="28"/>
         <v>-30.714857377385592</v>
       </c>
-      <c r="M25">
-        <f t="shared" si="25"/>
+      <c r="M25" s="8">
+        <f t="shared" si="28"/>
         <v>-3.6139613961396146</v>
       </c>
-      <c r="N25">
-        <f t="shared" si="25"/>
+      <c r="N25" s="8">
+        <f t="shared" si="28"/>
         <v>-8.9795409181636732</v>
       </c>
-      <c r="O25">
-        <f t="shared" si="25"/>
+      <c r="O25" s="8">
+        <f t="shared" si="28"/>
         <v>-11.582159624413146</v>
       </c>
-      <c r="P25">
-        <f t="shared" si="25"/>
+      <c r="P25" s="8">
+        <f t="shared" si="28"/>
         <v>-94.008672566371672</v>
       </c>
-      <c r="Q25">
+      <c r="Q25" s="8">
         <f>Q24/Q26</f>
         <v>-2.3946763353378122</v>
       </c>
-    </row>
-    <row r="26" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="U25" s="6"/>
+    </row>
+    <row r="26" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
         <v>30</v>
       </c>
-      <c r="C26">
+      <c r="C26" s="6">
         <v>10.327999999999999</v>
       </c>
-      <c r="D26">
+      <c r="D26" s="6">
         <v>10.31</v>
       </c>
-      <c r="E26">
+      <c r="E26" s="6">
         <v>10.308999999999999</v>
       </c>
-      <c r="F26">
+      <c r="F26" s="6">
         <v>10.327999999999999</v>
       </c>
-      <c r="G26">
+      <c r="G26" s="6">
         <v>10.031000000000001</v>
       </c>
-      <c r="H26">
+      <c r="H26" s="6">
         <v>9.7409999999999997</v>
       </c>
-      <c r="I26">
+      <c r="I26" s="6">
         <v>9.6159999999999997</v>
       </c>
-      <c r="J26">
+      <c r="J26" s="6">
         <v>9.6839999999999993</v>
       </c>
-      <c r="K26">
+      <c r="K26" s="6">
         <v>9.6470000000000002</v>
       </c>
-      <c r="L26">
+      <c r="L26" s="6">
         <v>9.7460000000000004</v>
       </c>
-      <c r="M26">
+      <c r="M26" s="6">
         <v>9.9990000000000006</v>
       </c>
-      <c r="N26">
+      <c r="N26" s="6">
         <v>10.02</v>
       </c>
-      <c r="O26">
+      <c r="O26" s="6">
         <v>11.289</v>
       </c>
-      <c r="P26">
+      <c r="P26" s="6">
         <v>11.3</v>
       </c>
-      <c r="Q26">
+      <c r="Q26" s="6">
         <v>11.308</v>
       </c>
-    </row>
-    <row r="31" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B31" s="1" t="s">
+      <c r="U26" s="6"/>
+    </row>
+    <row r="28" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="S28" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="T28" s="17">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="29" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="S29" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="T29" s="18">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="30" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="S30" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="T30" s="18">
+        <f>SUM(T28:T29)</f>
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="31" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="S31" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="T31" s="19">
+        <f>NPV(T30,U24:JL24)</f>
+        <v>-402.21387091663161</v>
+      </c>
+    </row>
+    <row r="32" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="S32" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="T32" s="21">
+        <f>Q38</f>
+        <v>51.636000000000003</v>
+      </c>
+    </row>
+    <row r="33" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="S33" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="T33" s="19">
+        <f>T31+T32</f>
+        <v>-350.57787091663158</v>
+      </c>
+    </row>
+    <row r="34" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="S34" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="T34" s="15">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="35" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="S35" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="T35" s="22">
+        <v>147.5</v>
+      </c>
+    </row>
+    <row r="36" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="S36" s="16" t="s">
+        <v>81</v>
+      </c>
+      <c r="T36" s="20">
+        <f>T33/T34</f>
+        <v>-31.870715537875597</v>
+      </c>
+    </row>
+    <row r="37" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C31" s="1"/>
-      <c r="D31" s="1"/>
-      <c r="E31" s="1"/>
-      <c r="F31" s="1"/>
-    </row>
-    <row r="32" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B32" s="3" t="s">
+      <c r="C37" s="1"/>
+      <c r="D37" s="1"/>
+      <c r="E37" s="1"/>
+      <c r="F37" s="1"/>
+    </row>
+    <row r="38" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B38" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="C32" s="3"/>
-      <c r="D32" s="3"/>
-      <c r="E32" s="3"/>
-      <c r="F32" s="3"/>
-      <c r="G32" s="3">
-        <f t="shared" ref="G32:P32" si="26">G33-G45</f>
+      <c r="C38" s="9">
+        <f t="shared" ref="C38" si="29">C39-C51</f>
+        <v>258.74299999999999</v>
+      </c>
+      <c r="D38" s="9">
+        <f t="shared" ref="D38" si="30">D39-D51</f>
+        <v>261.49700000000001</v>
+      </c>
+      <c r="E38" s="9">
+        <f t="shared" ref="E38" si="31">E39-E51</f>
+        <v>375.07100000000003</v>
+      </c>
+      <c r="F38" s="9">
+        <f t="shared" ref="F38" si="32">F39-F51</f>
+        <v>456.72699999999998</v>
+      </c>
+      <c r="G38" s="9">
+        <f t="shared" ref="G38:P38" si="33">G39-G51</f>
         <v>429.27600000000001</v>
       </c>
-      <c r="H32" s="3">
-        <f t="shared" si="26"/>
+      <c r="H38" s="9">
+        <f t="shared" si="33"/>
         <v>420.899</v>
       </c>
-      <c r="I32" s="3">
-        <f t="shared" si="26"/>
+      <c r="I38" s="9">
+        <f t="shared" si="33"/>
         <v>52.652999999999999</v>
       </c>
-      <c r="J32" s="3">
-        <f t="shared" si="26"/>
-        <v>0</v>
-      </c>
-      <c r="K32" s="3">
-        <f t="shared" si="26"/>
-        <v>0</v>
-      </c>
-      <c r="L32" s="3">
-        <f t="shared" si="26"/>
-        <v>0</v>
-      </c>
-      <c r="M32" s="3">
-        <f t="shared" si="26"/>
-        <v>0</v>
-      </c>
-      <c r="N32" s="3">
-        <f t="shared" si="26"/>
-        <v>0</v>
-      </c>
-      <c r="O32" s="3">
-        <f t="shared" si="26"/>
+      <c r="J38" s="9">
+        <f t="shared" si="33"/>
+        <v>45.012999999999998</v>
+      </c>
+      <c r="K38" s="9">
+        <f t="shared" si="33"/>
+        <v>68.027000000000001</v>
+      </c>
+      <c r="L38" s="9">
+        <f t="shared" si="33"/>
+        <v>49.137</v>
+      </c>
+      <c r="M38" s="9">
+        <f t="shared" si="33"/>
+        <v>48.673000000000002</v>
+      </c>
+      <c r="N38" s="9">
+        <f t="shared" si="33"/>
+        <v>55.267000000000003</v>
+      </c>
+      <c r="O38" s="9">
+        <f t="shared" si="33"/>
         <v>84.441000000000003</v>
       </c>
-      <c r="P32" s="3">
-        <f t="shared" si="26"/>
+      <c r="P38" s="9">
+        <f t="shared" si="33"/>
         <v>60.888999999999996</v>
       </c>
-      <c r="Q32" s="3">
-        <f>Q33-Q45</f>
+      <c r="Q38" s="9">
+        <f>Q39-Q51</f>
         <v>51.636000000000003</v>
       </c>
     </row>
-    <row r="33" spans="2:88" x14ac:dyDescent="0.25">
-      <c r="B33" s="4" t="s">
+    <row r="39" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B39" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="C33" s="4"/>
-      <c r="D33" s="4"/>
-      <c r="E33" s="4"/>
-      <c r="F33" s="4"/>
-      <c r="G33">
+      <c r="C39" s="10">
+        <v>258.74299999999999</v>
+      </c>
+      <c r="D39" s="10">
+        <v>261.49700000000001</v>
+      </c>
+      <c r="E39" s="10">
+        <v>375.07100000000003</v>
+      </c>
+      <c r="F39" s="10">
+        <v>456.72699999999998</v>
+      </c>
+      <c r="G39" s="6">
         <v>429.27600000000001</v>
       </c>
-      <c r="H33">
+      <c r="H39" s="6">
         <v>420.899</v>
       </c>
-      <c r="I33">
+      <c r="I39" s="6">
         <v>52.652999999999999</v>
       </c>
-      <c r="O33">
+      <c r="J39" s="6">
+        <v>59.674999999999997</v>
+      </c>
+      <c r="K39" s="6">
+        <v>82.543999999999997</v>
+      </c>
+      <c r="L39" s="6">
+        <v>56.399000000000001</v>
+      </c>
+      <c r="M39" s="6">
+        <v>56.975000000000001</v>
+      </c>
+      <c r="N39" s="6">
+        <v>63.356000000000002</v>
+      </c>
+      <c r="O39" s="6">
         <v>92.677000000000007</v>
       </c>
-      <c r="P33">
+      <c r="P39" s="6">
         <v>69.385999999999996</v>
       </c>
-      <c r="Q33">
+      <c r="Q39" s="6">
         <v>60.39</v>
       </c>
     </row>
-    <row r="34" spans="2:88" x14ac:dyDescent="0.25">
-      <c r="B34" t="s">
+    <row r="40" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B40" t="s">
         <v>33</v>
       </c>
-      <c r="G34">
+      <c r="C40" s="6">
+        <v>0.92200000000000004</v>
+      </c>
+      <c r="D40" s="6">
+        <v>1.0389999999999999</v>
+      </c>
+      <c r="E40" s="6">
+        <v>0.79800000000000004</v>
+      </c>
+      <c r="F40" s="6">
+        <v>1.089</v>
+      </c>
+      <c r="G40" s="6">
         <v>2.742</v>
       </c>
-      <c r="H34">
+      <c r="H40" s="6">
         <v>1.2210000000000001</v>
       </c>
-      <c r="I34">
+      <c r="I40" s="6">
         <v>1.2310000000000001</v>
       </c>
-      <c r="O34">
+      <c r="J40" s="6">
+        <v>1.0840000000000001</v>
+      </c>
+      <c r="K40" s="6">
+        <v>1.194</v>
+      </c>
+      <c r="L40" s="6">
+        <v>1.2050000000000001</v>
+      </c>
+      <c r="M40" s="6">
+        <v>1.149</v>
+      </c>
+      <c r="N40" s="6">
+        <v>1.0780000000000001</v>
+      </c>
+      <c r="O40" s="6">
         <v>6.2649999999999997</v>
       </c>
-      <c r="P34">
+      <c r="P40" s="6">
         <v>6.1550000000000002</v>
       </c>
-      <c r="Q34">
+      <c r="Q40" s="6">
         <v>6.5780000000000003</v>
       </c>
     </row>
-    <row r="35" spans="2:88" x14ac:dyDescent="0.25">
-      <c r="B35" t="s">
+    <row r="41" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B41" t="s">
         <v>60</v>
       </c>
-      <c r="G35">
+      <c r="C41" s="6">
+        <v>292.31400000000002</v>
+      </c>
+      <c r="D41" s="6">
+        <v>313.34899999999999</v>
+      </c>
+      <c r="E41" s="6">
+        <v>203.21799999999999</v>
+      </c>
+      <c r="F41" s="6">
+        <v>108.919</v>
+      </c>
+      <c r="G41" s="6">
         <v>109.946</v>
       </c>
-      <c r="H35">
+      <c r="H41" s="6">
         <v>109.97199999999999</v>
       </c>
-    </row>
-    <row r="36" spans="2:88" x14ac:dyDescent="0.25">
-      <c r="B36" t="s">
+      <c r="I41" s="6">
+        <v>0</v>
+      </c>
+      <c r="J41" s="6">
+        <v>0</v>
+      </c>
+      <c r="K41" s="6">
+        <v>0</v>
+      </c>
+      <c r="L41" s="6">
+        <v>0</v>
+      </c>
+      <c r="M41" s="6">
+        <v>0</v>
+      </c>
+      <c r="N41" s="6">
+        <v>0</v>
+      </c>
+      <c r="O41" s="6">
+        <v>0</v>
+      </c>
+      <c r="P41" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q41" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B42" t="s">
         <v>34</v>
       </c>
-      <c r="G36">
+      <c r="C42" s="6">
+        <v>133.922</v>
+      </c>
+      <c r="D42" s="6">
+        <v>129.14400000000001</v>
+      </c>
+      <c r="E42" s="6">
+        <v>118.002</v>
+      </c>
+      <c r="F42" s="6">
+        <v>163.51599999999999</v>
+      </c>
+      <c r="G42" s="6">
         <v>124.935</v>
       </c>
-      <c r="H36">
+      <c r="H42" s="6">
         <v>123.794</v>
       </c>
-      <c r="I36">
+      <c r="I42" s="6">
         <v>148.512</v>
       </c>
-      <c r="O36">
+      <c r="J42" s="6">
+        <v>197.46100000000001</v>
+      </c>
+      <c r="K42" s="6">
+        <v>150.626</v>
+      </c>
+      <c r="L42" s="6">
+        <v>131.51599999999999</v>
+      </c>
+      <c r="M42" s="6">
+        <v>123.748</v>
+      </c>
+      <c r="N42" s="6">
+        <v>189.28</v>
+      </c>
+      <c r="O42" s="6">
         <v>126.93</v>
       </c>
-      <c r="P36">
+      <c r="P42" s="6">
         <v>118.645</v>
       </c>
-      <c r="Q36">
+      <c r="Q42" s="6">
         <v>109.926</v>
       </c>
     </row>
-    <row r="37" spans="2:88" x14ac:dyDescent="0.25">
-      <c r="B37" t="s">
+    <row r="43" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B43" t="s">
         <v>35</v>
       </c>
-      <c r="G37">
+      <c r="C43" s="6">
+        <v>32.511000000000003</v>
+      </c>
+      <c r="D43" s="6">
+        <v>22.259</v>
+      </c>
+      <c r="E43" s="6">
+        <v>24.664999999999999</v>
+      </c>
+      <c r="F43" s="6">
+        <v>23.195</v>
+      </c>
+      <c r="G43" s="6">
         <v>26.163</v>
       </c>
-      <c r="H37">
+      <c r="H43" s="6">
         <v>16.887</v>
       </c>
-      <c r="I37">
+      <c r="I43" s="6">
         <v>16.04</v>
       </c>
-      <c r="O37">
+      <c r="J43" s="6">
+        <v>14.4</v>
+      </c>
+      <c r="K43" s="6">
+        <v>16.39</v>
+      </c>
+      <c r="L43" s="6">
+        <v>19.338000000000001</v>
+      </c>
+      <c r="M43" s="6">
+        <v>15.75</v>
+      </c>
+      <c r="N43" s="6">
+        <v>14.250999999999999</v>
+      </c>
+      <c r="O43" s="6">
         <v>21.116</v>
       </c>
-      <c r="P37">
+      <c r="P43" s="6">
         <v>25.495999999999999</v>
       </c>
-      <c r="Q37">
+      <c r="Q43" s="6">
         <v>25.399000000000001</v>
       </c>
     </row>
-    <row r="38" spans="2:88" x14ac:dyDescent="0.25">
-      <c r="B38" t="s">
+    <row r="44" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B44" t="s">
         <v>36</v>
       </c>
-      <c r="G38">
-        <v>0</v>
-      </c>
-      <c r="H38">
-        <v>0</v>
-      </c>
-      <c r="I38">
+      <c r="C44" s="6">
+        <v>0</v>
+      </c>
+      <c r="D44" s="6">
+        <v>0</v>
+      </c>
+      <c r="E44" s="6">
+        <v>0</v>
+      </c>
+      <c r="F44" s="6">
+        <v>0</v>
+      </c>
+      <c r="G44" s="6">
+        <v>0</v>
+      </c>
+      <c r="H44" s="6">
+        <v>0</v>
+      </c>
+      <c r="I44" s="6">
         <v>380.75799999999998</v>
       </c>
-      <c r="O38">
+      <c r="J44" s="6">
+        <v>1054.3019999999999</v>
+      </c>
+      <c r="K44" s="6">
+        <v>1946.5820000000001</v>
+      </c>
+      <c r="L44" s="6">
+        <v>2051.0390000000002</v>
+      </c>
+      <c r="M44" s="6">
+        <v>2405.739</v>
+      </c>
+      <c r="N44" s="6">
+        <v>2850.21</v>
+      </c>
+      <c r="O44" s="6">
         <v>2895.6190000000001</v>
       </c>
-      <c r="P38">
+      <c r="P44" s="6">
         <v>1987.7809999999999</v>
       </c>
-      <c r="Q38">
+      <c r="Q44" s="6">
         <v>1993.0319999999999</v>
       </c>
     </row>
-    <row r="39" spans="2:88" x14ac:dyDescent="0.25">
-      <c r="B39" t="s">
+    <row r="45" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B45" t="s">
         <v>37</v>
       </c>
-      <c r="G39">
+      <c r="C45" s="6">
+        <v>54.832000000000001</v>
+      </c>
+      <c r="D45" s="6">
+        <v>54.284999999999997</v>
+      </c>
+      <c r="E45" s="6">
+        <v>51.993000000000002</v>
+      </c>
+      <c r="F45" s="6">
+        <v>50.154000000000003</v>
+      </c>
+      <c r="G45" s="6">
         <v>47.622999999999998</v>
       </c>
-      <c r="H39">
+      <c r="H45" s="6">
         <v>45.3</v>
       </c>
-      <c r="I39">
+      <c r="I45" s="6">
         <v>45.472999999999999</v>
       </c>
-      <c r="O39">
+      <c r="J45" s="6">
+        <v>42.975000000000001</v>
+      </c>
+      <c r="K45" s="6">
+        <v>41.091000000000001</v>
+      </c>
+      <c r="L45" s="6">
+        <v>39.658999999999999</v>
+      </c>
+      <c r="M45" s="6">
+        <v>38.133000000000003</v>
+      </c>
+      <c r="N45" s="6">
+        <v>36.587000000000003</v>
+      </c>
+      <c r="O45" s="6">
         <v>35.68</v>
       </c>
-      <c r="P39">
+      <c r="P45" s="6">
         <v>34.58</v>
       </c>
-      <c r="Q39">
+      <c r="Q45" s="6">
         <v>33.033000000000001</v>
       </c>
     </row>
-    <row r="40" spans="2:88" x14ac:dyDescent="0.25">
-      <c r="B40" t="s">
+    <row r="46" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B46" t="s">
         <v>38</v>
       </c>
-      <c r="G40">
+      <c r="C46" s="6">
+        <v>87.742999999999995</v>
+      </c>
+      <c r="D46" s="6">
+        <v>89.631</v>
+      </c>
+      <c r="E46" s="6">
+        <v>86.994</v>
+      </c>
+      <c r="F46" s="6">
+        <v>85.537999999999997</v>
+      </c>
+      <c r="G46" s="6">
         <v>82.69</v>
       </c>
-      <c r="H40">
+      <c r="H46" s="6">
         <v>81.543000000000006</v>
       </c>
-      <c r="I40">
+      <c r="I46" s="6">
         <v>79.296000000000006</v>
       </c>
-      <c r="O40">
+      <c r="J46" s="6">
+        <v>73.596999999999994</v>
+      </c>
+      <c r="K46" s="6">
+        <v>71.367000000000004</v>
+      </c>
+      <c r="L46" s="6">
+        <v>70.34</v>
+      </c>
+      <c r="M46" s="6">
+        <v>68.754999999999995</v>
+      </c>
+      <c r="N46" s="6">
+        <v>66.760000000000005</v>
+      </c>
+      <c r="O46" s="6">
         <v>64.637</v>
       </c>
-      <c r="P40">
+      <c r="P46" s="6">
         <v>65.168999999999997</v>
       </c>
-      <c r="Q40">
+      <c r="Q46" s="6">
         <v>62.902000000000001</v>
       </c>
     </row>
-    <row r="41" spans="2:88" x14ac:dyDescent="0.25">
-      <c r="B41" t="s">
+    <row r="47" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B47" t="s">
         <v>39</v>
       </c>
-      <c r="G41">
+      <c r="C47" s="6">
+        <v>8.3740000000000006</v>
+      </c>
+      <c r="D47" s="6">
+        <v>7.9809999999999999</v>
+      </c>
+      <c r="E47" s="6">
+        <v>7.4550000000000001</v>
+      </c>
+      <c r="F47" s="6">
+        <v>8.0239999999999991</v>
+      </c>
+      <c r="G47" s="6">
         <v>7.7569999999999997</v>
       </c>
-      <c r="H41">
+      <c r="H47" s="6">
         <v>14.596</v>
       </c>
-      <c r="I41">
+      <c r="I47" s="6">
         <v>15.404999999999999</v>
       </c>
-      <c r="O41">
+      <c r="J47" s="6">
+        <v>15.615</v>
+      </c>
+      <c r="K47" s="6">
+        <v>15.013</v>
+      </c>
+      <c r="L47" s="6">
+        <v>15.756</v>
+      </c>
+      <c r="M47" s="6">
+        <v>14.856999999999999</v>
+      </c>
+      <c r="N47" s="6">
+        <v>15.82</v>
+      </c>
+      <c r="O47" s="6">
         <v>18.181000000000001</v>
       </c>
-      <c r="P41">
+      <c r="P47" s="6">
         <v>17.786000000000001</v>
       </c>
-      <c r="Q41">
+      <c r="Q47" s="6">
         <v>20.992000000000001</v>
       </c>
     </row>
-    <row r="42" spans="2:88" x14ac:dyDescent="0.25">
-      <c r="B42" t="s">
+    <row r="48" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B48" t="s">
         <v>40</v>
       </c>
-      <c r="G42">
+      <c r="C48" s="6">
+        <v>18.983000000000001</v>
+      </c>
+      <c r="D48" s="6">
+        <v>20.535</v>
+      </c>
+      <c r="E48" s="6">
+        <v>20.52</v>
+      </c>
+      <c r="F48" s="6">
+        <v>19.408999999999999</v>
+      </c>
+      <c r="G48" s="6">
         <v>18.138999999999999</v>
       </c>
-      <c r="H42">
+      <c r="H48" s="6">
         <v>18.834</v>
       </c>
-      <c r="I42">
+      <c r="I48" s="6">
         <v>33.536999999999999</v>
       </c>
-      <c r="O42">
+      <c r="J48" s="6">
+        <v>6.5030000000000001</v>
+      </c>
+      <c r="K48" s="6">
+        <v>118.27200000000001</v>
+      </c>
+      <c r="L48" s="6">
+        <v>239.107</v>
+      </c>
+      <c r="M48" s="6">
+        <v>261.13799999999998</v>
+      </c>
+      <c r="N48" s="6">
+        <v>319.78199999999998</v>
+      </c>
+      <c r="O48" s="6">
         <v>377.28199999999998</v>
       </c>
-      <c r="P42">
+      <c r="P48" s="6">
         <v>243.36699999999999</v>
       </c>
-      <c r="Q42">
+      <c r="Q48" s="6">
         <v>233.03399999999999</v>
       </c>
     </row>
-    <row r="43" spans="2:88" x14ac:dyDescent="0.25">
-      <c r="B43" s="2" t="s">
+    <row r="49" spans="2:88" x14ac:dyDescent="0.25">
+      <c r="B49" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C43" s="2"/>
-      <c r="D43" s="2"/>
-      <c r="E43" s="2"/>
-      <c r="F43" s="2"/>
-      <c r="G43" s="2">
-        <f t="shared" ref="G43:P43" si="27">SUM(G33:G42)</f>
+      <c r="C49" s="7">
+        <f t="shared" ref="C49" si="34">SUM(C39:C48)</f>
+        <v>888.34400000000005</v>
+      </c>
+      <c r="D49" s="7">
+        <f t="shared" ref="D49" si="35">SUM(D39:D48)</f>
+        <v>899.71999999999991</v>
+      </c>
+      <c r="E49" s="7">
+        <f t="shared" ref="E49" si="36">SUM(E39:E48)</f>
+        <v>888.71600000000001</v>
+      </c>
+      <c r="F49" s="7">
+        <f t="shared" ref="F49" si="37">SUM(F39:F48)</f>
+        <v>916.57100000000003</v>
+      </c>
+      <c r="G49" s="7">
+        <f t="shared" ref="G49:P49" si="38">SUM(G39:G48)</f>
         <v>849.27100000000019</v>
       </c>
-      <c r="H43" s="2">
-        <f t="shared" si="27"/>
+      <c r="H49" s="7">
+        <f t="shared" si="38"/>
         <v>833.04599999999982</v>
       </c>
-      <c r="I43" s="2">
-        <f t="shared" si="27"/>
+      <c r="I49" s="7">
+        <f t="shared" si="38"/>
         <v>772.90499999999997</v>
       </c>
-      <c r="J43" s="2">
-        <f t="shared" si="27"/>
-        <v>0</v>
-      </c>
-      <c r="K43" s="2">
-        <f t="shared" si="27"/>
-        <v>0</v>
-      </c>
-      <c r="L43" s="2">
-        <f t="shared" si="27"/>
-        <v>0</v>
-      </c>
-      <c r="M43" s="2">
-        <f t="shared" si="27"/>
-        <v>0</v>
-      </c>
-      <c r="N43" s="2">
-        <f t="shared" si="27"/>
-        <v>0</v>
-      </c>
-      <c r="O43" s="2">
-        <f t="shared" si="27"/>
+      <c r="J49" s="7">
+        <f t="shared" si="38"/>
+        <v>1465.6119999999999</v>
+      </c>
+      <c r="K49" s="7">
+        <f t="shared" si="38"/>
+        <v>2443.0790000000002</v>
+      </c>
+      <c r="L49" s="7">
+        <f t="shared" si="38"/>
+        <v>2624.3590000000004</v>
+      </c>
+      <c r="M49" s="7">
+        <f t="shared" si="38"/>
+        <v>2986.2439999999997</v>
+      </c>
+      <c r="N49" s="7">
+        <f t="shared" si="38"/>
+        <v>3557.1240000000007</v>
+      </c>
+      <c r="O49" s="7">
+        <f t="shared" si="38"/>
         <v>3638.3870000000002</v>
       </c>
-      <c r="P43" s="2">
-        <f t="shared" si="27"/>
+      <c r="P49" s="7">
+        <f t="shared" si="38"/>
         <v>2568.3649999999998</v>
       </c>
-      <c r="Q43" s="2">
-        <f>SUM(Q33:Q42)</f>
+      <c r="Q49" s="7">
+        <f>SUM(Q39:Q48)</f>
         <v>2545.2860000000001</v>
       </c>
-      <c r="CJ43" t="s">
+      <c r="CJ49" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="45" spans="2:88" x14ac:dyDescent="0.25">
-      <c r="B45" s="3" t="s">
+    <row r="50" spans="2:88" x14ac:dyDescent="0.25">
+      <c r="C50" s="6"/>
+      <c r="D50" s="6"/>
+      <c r="E50" s="6"/>
+      <c r="F50" s="6"/>
+      <c r="G50" s="6"/>
+      <c r="H50" s="6"/>
+      <c r="I50" s="6"/>
+      <c r="J50" s="6"/>
+      <c r="K50" s="6"/>
+      <c r="L50" s="6"/>
+      <c r="M50" s="6"/>
+      <c r="N50" s="6"/>
+      <c r="O50" s="6"/>
+      <c r="P50" s="6"/>
+      <c r="Q50" s="6"/>
+    </row>
+    <row r="51" spans="2:88" x14ac:dyDescent="0.25">
+      <c r="B51" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="C45" s="3"/>
-      <c r="D45" s="3"/>
-      <c r="E45" s="3"/>
-      <c r="F45" s="3"/>
-      <c r="G45" s="3">
-        <f>G50</f>
-        <v>0</v>
-      </c>
-      <c r="H45" s="3">
-        <f>H50</f>
-        <v>0</v>
-      </c>
-      <c r="I45" s="3">
-        <f>I50</f>
-        <v>0</v>
-      </c>
-      <c r="J45" s="3">
-        <f t="shared" ref="G45:P45" si="28">J51</f>
-        <v>0</v>
-      </c>
-      <c r="K45" s="3">
-        <f t="shared" si="28"/>
-        <v>0</v>
-      </c>
-      <c r="L45" s="3">
-        <f t="shared" si="28"/>
-        <v>0</v>
-      </c>
-      <c r="M45" s="3">
-        <f t="shared" si="28"/>
-        <v>0</v>
-      </c>
-      <c r="N45" s="3">
-        <f t="shared" si="28"/>
-        <v>0</v>
-      </c>
-      <c r="O45" s="3">
-        <f t="shared" si="28"/>
+      <c r="C51" s="9">
+        <f t="shared" ref="C51:G51" si="39">C56</f>
+        <v>0</v>
+      </c>
+      <c r="D51" s="9">
+        <f t="shared" si="39"/>
+        <v>0</v>
+      </c>
+      <c r="E51" s="9">
+        <f t="shared" si="39"/>
+        <v>0</v>
+      </c>
+      <c r="F51" s="9">
+        <f t="shared" si="39"/>
+        <v>0</v>
+      </c>
+      <c r="G51" s="9">
+        <f>G56</f>
+        <v>0</v>
+      </c>
+      <c r="H51" s="9">
+        <f>H56</f>
+        <v>0</v>
+      </c>
+      <c r="I51" s="9">
+        <f>I56</f>
+        <v>0</v>
+      </c>
+      <c r="J51" s="9">
+        <f t="shared" ref="G51:P51" si="40">J57</f>
+        <v>14.662000000000001</v>
+      </c>
+      <c r="K51" s="9">
+        <f t="shared" si="40"/>
+        <v>14.516999999999999</v>
+      </c>
+      <c r="L51" s="9">
+        <f t="shared" si="40"/>
+        <v>7.2619999999999996</v>
+      </c>
+      <c r="M51" s="9">
+        <f t="shared" si="40"/>
+        <v>8.3019999999999996</v>
+      </c>
+      <c r="N51" s="9">
+        <f t="shared" si="40"/>
+        <v>8.0890000000000004</v>
+      </c>
+      <c r="O51" s="9">
+        <f t="shared" si="40"/>
         <v>8.2360000000000007</v>
       </c>
-      <c r="P45" s="3">
-        <f t="shared" si="28"/>
+      <c r="P51" s="9">
+        <f t="shared" si="40"/>
         <v>8.4969999999999999</v>
       </c>
-      <c r="Q45" s="3">
-        <f>Q51</f>
+      <c r="Q51" s="9">
+        <f>Q57</f>
         <v>8.7539999999999996</v>
       </c>
     </row>
-    <row r="46" spans="2:88" x14ac:dyDescent="0.25">
-      <c r="B46" t="s">
+    <row r="52" spans="2:88" x14ac:dyDescent="0.25">
+      <c r="B52" t="s">
         <v>43</v>
       </c>
-      <c r="G46">
+      <c r="C52" s="6">
+        <v>37.226999999999997</v>
+      </c>
+      <c r="D52" s="6">
+        <v>32.299999999999997</v>
+      </c>
+      <c r="E52" s="6">
+        <v>28.626000000000001</v>
+      </c>
+      <c r="F52" s="6">
+        <v>33.918999999999997</v>
+      </c>
+      <c r="G52" s="6">
         <v>32.539000000000001</v>
       </c>
-      <c r="H46">
+      <c r="H52" s="6">
         <v>31.468</v>
       </c>
-      <c r="I46">
+      <c r="I52" s="6">
         <v>38.667999999999999</v>
       </c>
-      <c r="O46">
+      <c r="J52" s="6">
+        <v>45.119</v>
+      </c>
+      <c r="K52" s="6">
+        <v>39.816000000000003</v>
+      </c>
+      <c r="L52" s="6">
+        <v>41.235999999999997</v>
+      </c>
+      <c r="M52" s="6">
+        <v>45.454000000000001</v>
+      </c>
+      <c r="N52" s="6">
+        <v>46.084000000000003</v>
+      </c>
+      <c r="O52" s="6">
         <v>44.387999999999998</v>
       </c>
-      <c r="P46">
+      <c r="P52" s="6">
         <v>35.96</v>
       </c>
-      <c r="Q46">
+      <c r="Q52" s="6">
         <v>36.845999999999997</v>
       </c>
     </row>
-    <row r="47" spans="2:88" x14ac:dyDescent="0.25">
-      <c r="B47" t="s">
+    <row r="53" spans="2:88" x14ac:dyDescent="0.25">
+      <c r="B53" t="s">
         <v>46</v>
       </c>
-      <c r="G47">
+      <c r="C53" s="6">
+        <v>36.713000000000001</v>
+      </c>
+      <c r="D53" s="6">
+        <v>41.561</v>
+      </c>
+      <c r="E53" s="6">
+        <v>41.829000000000001</v>
+      </c>
+      <c r="F53" s="6">
+        <v>48.792000000000002</v>
+      </c>
+      <c r="G53" s="6">
         <v>35.207000000000001</v>
       </c>
-      <c r="H47">
+      <c r="H53" s="6">
         <v>40.805999999999997</v>
       </c>
-      <c r="I47">
+      <c r="I53" s="6">
         <v>44.177</v>
       </c>
-      <c r="O47">
+      <c r="J53" s="6">
+        <v>49.249000000000002</v>
+      </c>
+      <c r="K53" s="6">
+        <v>44.823999999999998</v>
+      </c>
+      <c r="L53" s="6">
+        <v>50.944000000000003</v>
+      </c>
+      <c r="M53" s="6">
+        <v>47.759900000000002</v>
+      </c>
+      <c r="N53" s="6">
+        <v>54.548000000000002</v>
+      </c>
+      <c r="O53" s="6">
         <v>43.725999999999999</v>
       </c>
-      <c r="P47">
+      <c r="P53" s="6">
         <v>47.773000000000003</v>
       </c>
-      <c r="Q47">
+      <c r="Q53" s="6">
         <v>46.345999999999997</v>
       </c>
     </row>
-    <row r="48" spans="2:88" x14ac:dyDescent="0.25">
-      <c r="B48" t="s">
+    <row r="54" spans="2:88" x14ac:dyDescent="0.25">
+      <c r="B54" t="s">
         <v>44</v>
       </c>
-      <c r="G48">
-        <v>0</v>
-      </c>
-      <c r="H48">
-        <v>0</v>
-      </c>
-      <c r="I48">
-        <v>0</v>
-      </c>
-      <c r="O48">
+      <c r="C54" s="6">
+        <v>0</v>
+      </c>
+      <c r="D54" s="6">
+        <v>0</v>
+      </c>
+      <c r="E54" s="6">
+        <v>0</v>
+      </c>
+      <c r="F54" s="6">
+        <v>0</v>
+      </c>
+      <c r="G54" s="6">
+        <v>0</v>
+      </c>
+      <c r="H54" s="6">
+        <v>0</v>
+      </c>
+      <c r="I54" s="6">
+        <v>0</v>
+      </c>
+      <c r="J54" s="6">
+        <v>0</v>
+      </c>
+      <c r="K54" s="6">
+        <v>0</v>
+      </c>
+      <c r="L54" s="6">
+        <v>0</v>
+      </c>
+      <c r="M54" s="6">
+        <v>0</v>
+      </c>
+      <c r="N54" s="6">
+        <v>1.4930000000000001</v>
+      </c>
+      <c r="O54" s="6">
         <v>10.544</v>
       </c>
-      <c r="P48">
+      <c r="P54" s="6">
         <v>2.2690000000000001</v>
       </c>
-      <c r="Q48">
+      <c r="Q54" s="6">
         <v>11.394</v>
       </c>
     </row>
-    <row r="49" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B49" t="s">
+    <row r="55" spans="2:88" x14ac:dyDescent="0.25">
+      <c r="B55" t="s">
         <v>45</v>
       </c>
-      <c r="G49">
+      <c r="C55" s="6">
+        <v>190.07</v>
+      </c>
+      <c r="D55" s="6">
+        <v>176.786</v>
+      </c>
+      <c r="E55" s="6">
+        <v>160.244</v>
+      </c>
+      <c r="F55" s="6">
+        <v>187.107</v>
+      </c>
+      <c r="G55" s="6">
         <v>184.89099999999999</v>
       </c>
-      <c r="H49">
+      <c r="H55" s="6">
         <v>167.643</v>
       </c>
-      <c r="I49">
+      <c r="I55" s="6">
         <v>160.845</v>
       </c>
-      <c r="O49">
+      <c r="J55" s="6">
+        <v>191.25</v>
+      </c>
+      <c r="K55" s="6">
+        <v>198.98</v>
+      </c>
+      <c r="L55" s="6">
+        <v>182.81800000000001</v>
+      </c>
+      <c r="M55" s="6">
+        <v>160.697</v>
+      </c>
+      <c r="N55" s="6">
+        <v>209.86</v>
+      </c>
+      <c r="O55" s="6">
         <v>206.21700000000001</v>
       </c>
-      <c r="P49">
+      <c r="P55" s="6">
         <v>188.09800000000001</v>
       </c>
-      <c r="Q49">
+      <c r="Q55" s="6">
         <v>165.934</v>
       </c>
     </row>
-    <row r="50" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B50" t="s">
+    <row r="56" spans="2:88" x14ac:dyDescent="0.25">
+      <c r="B56" t="s">
         <v>47</v>
       </c>
-      <c r="G50">
-        <v>0</v>
-      </c>
-      <c r="H50">
-        <v>0</v>
-      </c>
-      <c r="I50">
-        <v>0</v>
-      </c>
-      <c r="O50">
+      <c r="C56" s="6">
+        <v>0</v>
+      </c>
+      <c r="D56" s="6">
+        <v>0</v>
+      </c>
+      <c r="E56" s="6">
+        <v>0</v>
+      </c>
+      <c r="F56" s="6">
+        <v>0</v>
+      </c>
+      <c r="G56" s="6">
+        <v>0</v>
+      </c>
+      <c r="H56" s="6">
+        <v>0</v>
+      </c>
+      <c r="I56" s="6">
+        <v>0</v>
+      </c>
+      <c r="J56" s="6">
+        <v>486.36599999999999</v>
+      </c>
+      <c r="K56" s="6">
+        <v>1661.914</v>
+      </c>
+      <c r="L56" s="6">
+        <v>2150.9270000000001</v>
+      </c>
+      <c r="M56" s="6">
+        <v>2153.0340000000001</v>
+      </c>
+      <c r="N56" s="6">
+        <v>2155.1509999999998</v>
+      </c>
+      <c r="O56" s="6">
         <v>2361.8649999999998</v>
       </c>
-      <c r="P50">
+      <c r="P56" s="6">
         <v>2374.8629999999998</v>
       </c>
-      <c r="Q50">
+      <c r="Q56" s="6">
         <v>2376.9349999999999</v>
       </c>
     </row>
-    <row r="51" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B51" t="s">
+    <row r="57" spans="2:88" x14ac:dyDescent="0.25">
+      <c r="B57" t="s">
         <v>48</v>
       </c>
-      <c r="G51">
+      <c r="C57" s="6">
+        <v>4.5389999999999997</v>
+      </c>
+      <c r="D57" s="6">
+        <v>4.1749999999999998</v>
+      </c>
+      <c r="E57" s="6">
+        <v>4.4870000000000001</v>
+      </c>
+      <c r="F57" s="6">
+        <v>4.3440000000000003</v>
+      </c>
+      <c r="G57" s="6">
         <v>3.66</v>
       </c>
-      <c r="H51">
+      <c r="H57" s="6">
         <v>5.91</v>
       </c>
-      <c r="I51">
+      <c r="I57" s="6">
         <v>11.657</v>
       </c>
-      <c r="O51">
+      <c r="J57" s="6">
+        <v>14.662000000000001</v>
+      </c>
+      <c r="K57" s="6">
+        <v>14.516999999999999</v>
+      </c>
+      <c r="L57" s="6">
+        <v>7.2619999999999996</v>
+      </c>
+      <c r="M57" s="6">
+        <v>8.3019999999999996</v>
+      </c>
+      <c r="N57" s="6">
+        <v>8.0890000000000004</v>
+      </c>
+      <c r="O57" s="6">
         <v>8.2360000000000007</v>
       </c>
-      <c r="P51">
+      <c r="P57" s="6">
         <v>8.4969999999999999</v>
       </c>
-      <c r="Q51">
+      <c r="Q57" s="6">
         <v>8.7539999999999996</v>
       </c>
     </row>
-    <row r="52" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B52" t="s">
+    <row r="58" spans="2:88" x14ac:dyDescent="0.25">
+      <c r="B58" t="s">
         <v>49</v>
       </c>
-      <c r="G52">
+      <c r="C58" s="6">
+        <v>106.661</v>
+      </c>
+      <c r="D58" s="6">
+        <v>108.18300000000001</v>
+      </c>
+      <c r="E58" s="6">
+        <v>105.291</v>
+      </c>
+      <c r="F58" s="6">
+        <v>103.42400000000001</v>
+      </c>
+      <c r="G58" s="6">
         <v>100.251</v>
       </c>
-      <c r="H52">
+      <c r="H58" s="6">
         <v>98.283000000000001</v>
       </c>
-      <c r="I52">
+      <c r="I58" s="6">
         <v>95.590999999999994</v>
       </c>
-      <c r="O52">
+      <c r="J58" s="6">
+        <v>84.328000000000003</v>
+      </c>
+      <c r="K58" s="6">
+        <v>81.849000000000004</v>
+      </c>
+      <c r="L58" s="6">
+        <v>80.900000000000006</v>
+      </c>
+      <c r="M58" s="6">
+        <v>78.938999999999993</v>
+      </c>
+      <c r="N58" s="6">
+        <v>76.608000000000004</v>
+      </c>
+      <c r="O58" s="6">
         <v>73.956000000000003</v>
       </c>
-      <c r="P52">
+      <c r="P58" s="6">
         <v>72.162000000000006</v>
       </c>
-      <c r="Q52">
+      <c r="Q58" s="6">
         <v>69.278000000000006</v>
       </c>
     </row>
-    <row r="53" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B53" t="s">
+    <row r="59" spans="2:88" x14ac:dyDescent="0.25">
+      <c r="B59" t="s">
         <v>50</v>
       </c>
-      <c r="G53">
+      <c r="C59" s="6">
+        <v>34.792999999999999</v>
+      </c>
+      <c r="D59" s="6">
+        <v>33.99</v>
+      </c>
+      <c r="E59" s="6">
+        <v>32.786000000000001</v>
+      </c>
+      <c r="F59" s="6">
+        <v>30.4</v>
+      </c>
+      <c r="G59" s="6">
         <v>31.273</v>
       </c>
-      <c r="H53">
+      <c r="H59" s="6">
         <v>30.452000000000002</v>
       </c>
-      <c r="I53">
+      <c r="I59" s="6">
         <v>32.651000000000003</v>
       </c>
-      <c r="O53">
+      <c r="J59" s="6">
+        <v>33.381999999999998</v>
+      </c>
+      <c r="K59" s="6">
+        <v>34.329000000000001</v>
+      </c>
+      <c r="L59" s="6">
+        <v>31.04</v>
+      </c>
+      <c r="M59" s="6">
+        <v>28.934000000000001</v>
+      </c>
+      <c r="N59" s="6">
+        <v>26.224</v>
+      </c>
+      <c r="O59" s="6">
         <v>26.347000000000001</v>
       </c>
-      <c r="P53">
+      <c r="P59" s="6">
         <v>25.706</v>
       </c>
-      <c r="Q53">
+      <c r="Q59" s="6">
         <v>30.088000000000001</v>
       </c>
     </row>
-    <row r="54" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B54" t="s">
+    <row r="60" spans="2:88" x14ac:dyDescent="0.25">
+      <c r="B60" t="s">
         <v>51</v>
       </c>
-      <c r="G54">
+      <c r="C60" s="6">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="D60" s="6">
+        <v>3.5999999999999997E-2</v>
+      </c>
+      <c r="E60" s="6">
+        <v>3.4000000000000002E-2</v>
+      </c>
+      <c r="F60" s="6">
+        <v>2.5999999999999999E-2</v>
+      </c>
+      <c r="G60" s="6">
         <v>2.4E-2</v>
       </c>
-      <c r="H54">
+      <c r="H60" s="6">
         <v>2.4E-2</v>
       </c>
-      <c r="I54">
+      <c r="I60" s="6">
         <v>2.4E-2</v>
       </c>
-      <c r="O54">
+      <c r="J60" s="6">
+        <v>8.2110000000000003</v>
+      </c>
+      <c r="K60" s="6">
+        <v>1.8120000000000001</v>
+      </c>
+      <c r="L60" s="6">
+        <v>1.8129999999999999</v>
+      </c>
+      <c r="M60" s="6">
+        <v>1.8109999999999999</v>
+      </c>
+      <c r="N60" s="6">
         <v>0.109</v>
       </c>
-      <c r="P54">
+      <c r="O60" s="6">
+        <v>0.109</v>
+      </c>
+      <c r="P60" s="6">
         <v>0.105</v>
       </c>
-      <c r="Q54">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B55" s="2" t="s">
+      <c r="Q60" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="2:88" x14ac:dyDescent="0.25">
+      <c r="B61" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="C55" s="2"/>
-      <c r="D55" s="2"/>
-      <c r="E55" s="2"/>
-      <c r="F55" s="2"/>
-      <c r="G55" s="2">
-        <f t="shared" ref="G55:P55" si="29">SUM(G46:G54)</f>
+      <c r="C61" s="7">
+        <f t="shared" ref="C61" si="41">SUM(C52:C60)</f>
+        <v>410.03800000000001</v>
+      </c>
+      <c r="D61" s="7">
+        <f>SUM(D52:D60)</f>
+        <v>397.03100000000001</v>
+      </c>
+      <c r="E61" s="7">
+        <f t="shared" ref="E61" si="42">SUM(E52:E60)</f>
+        <v>373.29699999999997</v>
+      </c>
+      <c r="F61" s="7">
+        <f t="shared" ref="F61" si="43">SUM(F52:F60)</f>
+        <v>408.012</v>
+      </c>
+      <c r="G61" s="7">
+        <f t="shared" ref="G61:P61" si="44">SUM(G52:G60)</f>
         <v>387.84500000000003</v>
       </c>
-      <c r="H55" s="2">
-        <f t="shared" si="29"/>
+      <c r="H61" s="7">
+        <f t="shared" si="44"/>
         <v>374.58600000000001</v>
       </c>
-      <c r="I55" s="2">
-        <f t="shared" si="29"/>
+      <c r="I61" s="7">
+        <f t="shared" si="44"/>
         <v>383.613</v>
       </c>
-      <c r="J55" s="2">
-        <f t="shared" si="29"/>
-        <v>0</v>
-      </c>
-      <c r="K55" s="2">
-        <f t="shared" si="29"/>
-        <v>0</v>
-      </c>
-      <c r="L55" s="2">
-        <f t="shared" si="29"/>
-        <v>0</v>
-      </c>
-      <c r="M55" s="2">
-        <f t="shared" si="29"/>
-        <v>0</v>
-      </c>
-      <c r="N55" s="2">
-        <f t="shared" si="29"/>
-        <v>0</v>
-      </c>
-      <c r="O55" s="2">
-        <f t="shared" si="29"/>
+      <c r="J61" s="7">
+        <f t="shared" si="44"/>
+        <v>912.56699999999989</v>
+      </c>
+      <c r="K61" s="7">
+        <f t="shared" si="44"/>
+        <v>2078.0410000000002</v>
+      </c>
+      <c r="L61" s="7">
+        <f t="shared" si="44"/>
+        <v>2546.9400000000005</v>
+      </c>
+      <c r="M61" s="7">
+        <f t="shared" si="44"/>
+        <v>2524.9309000000003</v>
+      </c>
+      <c r="N61" s="7">
+        <f t="shared" si="44"/>
+        <v>2578.1660000000002</v>
+      </c>
+      <c r="O61" s="7">
+        <f t="shared" si="44"/>
         <v>2775.3879999999999</v>
       </c>
-      <c r="P55" s="2">
-        <f t="shared" si="29"/>
+      <c r="P61" s="7">
+        <f t="shared" si="44"/>
         <v>2755.4329999999995</v>
       </c>
-      <c r="Q55" s="2">
-        <f>SUM(Q46:Q54)</f>
+      <c r="Q61" s="7">
+        <f>SUM(Q52:Q60)</f>
         <v>2745.5749999999998</v>
+      </c>
+    </row>
+    <row r="62" spans="2:88" x14ac:dyDescent="0.25">
+      <c r="B62" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="63" spans="2:88" x14ac:dyDescent="0.25">
+      <c r="B63" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="64" spans="2:88" x14ac:dyDescent="0.25">
+      <c r="B64" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="66" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B66" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="67" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B67" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C67" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="D67" s="7">
+        <f>SUM(A24:D24)</f>
+        <v>12.48800000000001</v>
+      </c>
+      <c r="E67" s="7">
+        <f>SUM(B24:E24)</f>
+        <v>22.188000000000024</v>
+      </c>
+      <c r="F67" s="7">
+        <f>SUM(C24:F24)</f>
+        <v>34.35500000000004</v>
+      </c>
+      <c r="G67" s="7">
+        <f>SUM(D24:G24)</f>
+        <v>42.918000000000035</v>
+      </c>
+      <c r="H67" s="7">
+        <f>SUM(E24:H24)</f>
+        <v>25.911000000000044</v>
+      </c>
+      <c r="I67" s="7">
+        <f>SUM(F24:I24)</f>
+        <v>1.9820000000000153</v>
+      </c>
+      <c r="J67" s="7">
+        <f>SUM(G24:J24)</f>
+        <v>-160.47599999999997</v>
+      </c>
+      <c r="K67" s="7">
+        <f>SUM(H24:K24)</f>
+        <v>-271.15299999999996</v>
+      </c>
+      <c r="L67" s="7">
+        <f>SUM(I24:L24)</f>
+        <v>-573.88699999999994</v>
+      </c>
+      <c r="M67" s="7">
+        <f>SUM(J24:M24)</f>
+        <v>-595.79399999999987</v>
+      </c>
+      <c r="N67" s="7">
+        <f>SUM(K24:N24)</f>
+        <v>-535.47799999999995</v>
+      </c>
+      <c r="O67" s="7">
+        <f>SUM(L24:O24)</f>
+        <v>-556.20900000000006</v>
+      </c>
+      <c r="P67" s="7">
+        <f>SUM(M24:P24)</f>
+        <v>-1319.16</v>
+      </c>
+      <c r="Q67" s="7">
+        <f>SUM(N24:Q24)</f>
+        <v>-1310.1029999999998</v>
+      </c>
+    </row>
+    <row r="68" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B68" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="69" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B69" t="s">
+        <v>68</v>
+      </c>
+      <c r="D69" s="12">
+        <f>D67/D49</f>
+        <v>1.3879873738496433E-2</v>
+      </c>
+      <c r="E69" s="12">
+        <f t="shared" ref="E69:Q69" si="45">E67/E49</f>
+        <v>2.4966355956233515E-2</v>
+      </c>
+      <c r="F69" s="12">
+        <f t="shared" si="45"/>
+        <v>3.7482093585766992E-2</v>
+      </c>
+      <c r="G69" s="12">
+        <f t="shared" si="45"/>
+        <v>5.0535105990902815E-2</v>
+      </c>
+      <c r="H69" s="12">
+        <f t="shared" si="45"/>
+        <v>3.1103924633213591E-2</v>
+      </c>
+      <c r="I69" s="12">
+        <f t="shared" si="45"/>
+        <v>2.5643513756542077E-3</v>
+      </c>
+      <c r="J69" s="12">
+        <f t="shared" si="45"/>
+        <v>-0.10949419082267339</v>
+      </c>
+      <c r="K69" s="12">
+        <f t="shared" si="45"/>
+        <v>-0.11098822428582945</v>
+      </c>
+      <c r="L69" s="12">
+        <f t="shared" si="45"/>
+        <v>-0.21867701789275013</v>
+      </c>
+      <c r="M69" s="12">
+        <f t="shared" si="45"/>
+        <v>-0.19951283284286211</v>
+      </c>
+      <c r="N69" s="12">
+        <f t="shared" si="45"/>
+        <v>-0.15053678196205694</v>
+      </c>
+      <c r="O69" s="12">
+        <f t="shared" si="45"/>
+        <v>-0.1528724129676145</v>
+      </c>
+      <c r="P69" s="12">
+        <f t="shared" si="45"/>
+        <v>-0.51361858614332467</v>
+      </c>
+      <c r="Q69" s="12">
+        <f t="shared" si="45"/>
+        <v>-0.51471740307376057</v>
+      </c>
+    </row>
+    <row r="70" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B70" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="71" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B71" t="s">
+        <v>70</v>
+      </c>
+      <c r="D71" s="12">
+        <f>D67/(D42+D44+D45+D46+D47+D48)</f>
+        <v>4.1409130700055738E-2</v>
+      </c>
+      <c r="E71" s="12">
+        <f t="shared" ref="E71:Q71" si="46">E67/(E42+E44+E45+E46+E47+E48)</f>
+        <v>7.786246683791645E-2</v>
+      </c>
+      <c r="F71" s="12">
+        <f t="shared" si="46"/>
+        <v>0.10517663122510659</v>
+      </c>
+      <c r="G71" s="12">
+        <f t="shared" si="46"/>
+        <v>0.15265486725663729</v>
+      </c>
+      <c r="H71" s="12">
+        <f t="shared" si="46"/>
+        <v>9.1214396603618311E-2</v>
+      </c>
+      <c r="I71" s="12">
+        <f t="shared" si="46"/>
+        <v>2.8194218620418124E-3</v>
+      </c>
+      <c r="J71" s="12">
+        <f t="shared" si="46"/>
+        <v>-0.11541274678108501</v>
+      </c>
+      <c r="K71" s="12">
+        <f t="shared" si="46"/>
+        <v>-0.11573140027256223</v>
+      </c>
+      <c r="L71" s="12">
+        <f t="shared" si="46"/>
+        <v>-0.2252819228261411</v>
+      </c>
+      <c r="M71" s="12">
+        <f t="shared" si="46"/>
+        <v>-0.20457359470122269</v>
+      </c>
+      <c r="N71" s="12">
+        <f t="shared" si="46"/>
+        <v>-0.15394204124321278</v>
+      </c>
+      <c r="O71" s="12">
+        <f t="shared" si="46"/>
+        <v>-0.15808896780261311</v>
+      </c>
+      <c r="P71" s="12">
+        <f t="shared" si="46"/>
+        <v>-0.53465125025938998</v>
+      </c>
+      <c r="Q71" s="12">
+        <f t="shared" si="46"/>
+        <v>-0.53409957687147425</v>
       </c>
     </row>
   </sheetData>
@@ -2582,4 +3924,72 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F60E87BF-0216-44A0-A79C-279A8A2CA3A0}">
+  <dimension ref="B2:C7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="9.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C2">
+        <v>176.39</v>
+      </c>
+    </row>
+    <row r="3" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>62</v>
+      </c>
+      <c r="C3" s="6">
+        <f>C4/C2</f>
+        <v>9.3542717841147471</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>63</v>
+      </c>
+      <c r="C4" s="6">
+        <v>1650</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C5" s="6">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>42</v>
+      </c>
+      <c r="C6" s="6">
+        <v>8.7539999999999996</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B7" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C7" s="7">
+        <f>C4+C5-C6</f>
+        <v>1692.2460000000001</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Finance Universe/MSTR.xlsx
+++ b/Finance Universe/MSTR.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\game\Documents\GitHub\finance\Finance Universe\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0AAAAAD-8A9D-4F1B-A6D6-94D1C1238E9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C876EC9A-9387-4198-BD42-6DA63E2072CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="19935" yWindow="6345" windowWidth="24975" windowHeight="16200" activeTab="1" xr2:uid="{E39AE9FB-F613-4F5F-A005-99F9E982EA5E}"/>
   </bookViews>
@@ -796,10 +796,10 @@
   <dimension ref="A1:CJ71"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="O3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="G3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="T30" sqref="T30"/>
+      <selection pane="bottomRight" activeCell="T36" sqref="T36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2451,7 +2451,7 @@
         <v>80</v>
       </c>
       <c r="T35" s="22">
-        <v>147.5</v>
+        <v>174.5</v>
       </c>
     </row>
     <row r="36" spans="2:20" x14ac:dyDescent="0.25">
@@ -3931,7 +3931,7 @@
   <dimension ref="B2:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3952,8 +3952,7 @@
         <v>62</v>
       </c>
       <c r="C3" s="6">
-        <f>C4/C2</f>
-        <v>9.3542717841147471</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="2:3" x14ac:dyDescent="0.25">

--- a/Finance Universe/MSTR.xlsx
+++ b/Finance Universe/MSTR.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\game\Documents\GitHub\finance\Finance Universe\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C876EC9A-9387-4198-BD42-6DA63E2072CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CE2495F-ACB1-4B56-AEA4-A9E7CFC6DA46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19935" yWindow="6345" windowWidth="24975" windowHeight="16200" activeTab="1" xr2:uid="{E39AE9FB-F613-4F5F-A005-99F9E982EA5E}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{E39AE9FB-F613-4F5F-A005-99F9E982EA5E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -291,8 +291,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
     <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
-    <numFmt numFmtId="166" formatCode="&quot;$&quot;#,##0"/>
-    <numFmt numFmtId="167" formatCode="&quot;$&quot;#,##0.0"/>
+    <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0"/>
+    <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0.0"/>
   </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
@@ -473,8 +473,8 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="8" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="8" fontId="5" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
@@ -795,11 +795,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4A18B54-DABC-4048-B6E4-AF4393711BFE}">
   <dimension ref="A1:CJ71"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="G3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="T36" sqref="T36"/>
+      <selection pane="bottomRight" activeCell="T15" sqref="T15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -869,31 +869,31 @@
         <v>2019</v>
       </c>
       <c r="V2">
-        <f>U2+1</f>
+        <f t="shared" ref="V2:AB2" si="0">U2+1</f>
         <v>2020</v>
       </c>
       <c r="W2">
-        <f>V2+1</f>
+        <f t="shared" si="0"/>
         <v>2021</v>
       </c>
       <c r="X2">
-        <f>W2+1</f>
+        <f t="shared" si="0"/>
         <v>2022</v>
       </c>
       <c r="Y2">
-        <f>X2+1</f>
+        <f t="shared" si="0"/>
         <v>2023</v>
       </c>
       <c r="Z2">
-        <f>Y2+1</f>
+        <f t="shared" si="0"/>
         <v>2024</v>
       </c>
       <c r="AA2">
-        <f>Z2+1</f>
+        <f t="shared" si="0"/>
         <v>2025</v>
       </c>
       <c r="AB2">
-        <f>AA2+1</f>
+        <f t="shared" si="0"/>
         <v>2026</v>
       </c>
     </row>
@@ -963,11 +963,11 @@
         <v>87.471000000000004</v>
       </c>
       <c r="V5" s="6">
-        <f t="shared" ref="V5:V24" si="0">SUM(G5:J5)</f>
+        <f t="shared" ref="V5:V23" si="1">SUM(G5:J5)</f>
         <v>86.742999999999995</v>
       </c>
       <c r="W5" s="6">
-        <f t="shared" ref="W5:W24" si="1">SUM(K5:N5)</f>
+        <f t="shared" ref="W5:W23" si="2">SUM(K5:N5)</f>
         <v>101.804</v>
       </c>
     </row>
@@ -1024,15 +1024,15 @@
         <v>16.414000000000001</v>
       </c>
       <c r="U6" s="6">
-        <f t="shared" ref="U6:U26" si="2">SUM(C6:F6)</f>
+        <f t="shared" ref="U6:U24" si="3">SUM(C6:F6)</f>
         <v>29.394000000000005</v>
       </c>
       <c r="V6" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>33.082000000000001</v>
       </c>
       <c r="W6" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>43.069000000000003</v>
       </c>
     </row>
@@ -1089,15 +1089,15 @@
         <v>66.010000000000005</v>
       </c>
       <c r="U7" s="6">
+        <f t="shared" si="3"/>
+        <v>292.03500000000003</v>
+      </c>
+      <c r="V7" s="6">
+        <f t="shared" si="1"/>
+        <v>284.43400000000003</v>
+      </c>
+      <c r="W7" s="6">
         <f t="shared" si="2"/>
-        <v>292.03500000000003</v>
-      </c>
-      <c r="V7" s="6">
-        <f t="shared" si="0"/>
-        <v>284.43400000000003</v>
-      </c>
-      <c r="W7" s="6">
-        <f t="shared" si="1"/>
         <v>281.209</v>
       </c>
     </row>
@@ -1154,15 +1154,15 @@
         <v>20.65</v>
       </c>
       <c r="U8" s="6">
+        <f t="shared" si="3"/>
+        <v>77.427000000000007</v>
+      </c>
+      <c r="V8" s="6">
+        <f t="shared" si="1"/>
+        <v>-76.475999999999999</v>
+      </c>
+      <c r="W8" s="6">
         <f t="shared" si="2"/>
-        <v>77.427000000000007</v>
-      </c>
-      <c r="V8" s="6">
-        <f t="shared" si="0"/>
-        <v>-76.475999999999999</v>
-      </c>
-      <c r="W8" s="6">
-        <f t="shared" si="1"/>
         <v>84.68</v>
       </c>
     </row>
@@ -1171,59 +1171,59 @@
         <v>18</v>
       </c>
       <c r="C9" s="7">
-        <f t="shared" ref="C9" si="3">SUM(C5:C8)</f>
+        <f t="shared" ref="C9" si="4">SUM(C5:C8)</f>
         <v>115.36600000000001</v>
       </c>
       <c r="D9" s="7">
-        <f t="shared" ref="D9" si="4">SUM(D5:D8)</f>
+        <f t="shared" ref="D9" si="5">SUM(D5:D8)</f>
         <v>117.73699999999999</v>
       </c>
       <c r="E9" s="7">
-        <f t="shared" ref="E9" si="5">SUM(E5:E8)</f>
+        <f t="shared" ref="E9" si="6">SUM(E5:E8)</f>
         <v>119.69300000000001</v>
       </c>
       <c r="F9" s="7">
-        <f t="shared" ref="F9" si="6">SUM(F5:F8)</f>
+        <f t="shared" ref="F9" si="7">SUM(F5:F8)</f>
         <v>133.53100000000003</v>
       </c>
       <c r="G9" s="7">
-        <f t="shared" ref="G9:P9" si="7">SUM(G5:G8)</f>
+        <f t="shared" ref="G9:P9" si="8">SUM(G5:G8)</f>
         <v>111.42400000000001</v>
       </c>
       <c r="H9" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>110.584</v>
       </c>
       <c r="I9" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>127.408</v>
       </c>
       <c r="J9" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>-21.632999999999967</v>
       </c>
       <c r="K9" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>122.902</v>
       </c>
       <c r="L9" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>125.35100000000001</v>
       </c>
       <c r="M9" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>127.994</v>
       </c>
       <c r="N9" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>134.51500000000004</v>
       </c>
       <c r="O9" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>119.277</v>
       </c>
       <c r="P9" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>122.07300000000001</v>
       </c>
       <c r="Q9" s="7">
@@ -1231,15 +1231,15 @@
         <v>125.36000000000001</v>
       </c>
       <c r="U9" s="7">
+        <f t="shared" si="3"/>
+        <v>486.32700000000011</v>
+      </c>
+      <c r="V9" s="7">
+        <f t="shared" si="1"/>
+        <v>327.78300000000002</v>
+      </c>
+      <c r="W9" s="7">
         <f t="shared" si="2"/>
-        <v>486.32700000000011</v>
-      </c>
-      <c r="V9" s="7">
-        <f t="shared" si="0"/>
-        <v>327.78300000000002</v>
-      </c>
-      <c r="W9" s="7">
-        <f t="shared" si="1"/>
         <v>510.76200000000006</v>
       </c>
     </row>
@@ -1296,15 +1296,15 @@
         <v>0.40600000000000003</v>
       </c>
       <c r="U10" s="6">
+        <f t="shared" si="3"/>
+        <v>2.1309999999999998</v>
+      </c>
+      <c r="V10" s="6">
+        <f t="shared" si="1"/>
+        <v>2.2930000000000001</v>
+      </c>
+      <c r="W10" s="6">
         <f t="shared" si="2"/>
-        <v>2.1309999999999998</v>
-      </c>
-      <c r="V10" s="6">
-        <f t="shared" si="0"/>
-        <v>2.2930000000000001</v>
-      </c>
-      <c r="W10" s="6">
-        <f t="shared" si="1"/>
         <v>1.7210000000000001</v>
       </c>
     </row>
@@ -1361,15 +1361,15 @@
         <v>6.3949999999999996</v>
       </c>
       <c r="U11" s="6">
+        <f t="shared" si="3"/>
+        <v>15.161</v>
+      </c>
+      <c r="V11" s="6">
+        <f t="shared" si="1"/>
+        <v>14.833</v>
+      </c>
+      <c r="W11" s="6">
         <f t="shared" si="2"/>
-        <v>15.161</v>
-      </c>
-      <c r="V11" s="6">
-        <f t="shared" si="0"/>
-        <v>14.833</v>
-      </c>
-      <c r="W11" s="6">
-        <f t="shared" si="1"/>
         <v>16.901</v>
       </c>
     </row>
@@ -1426,15 +1426,15 @@
         <v>5.2240000000000002</v>
       </c>
       <c r="U12" s="6">
+        <f t="shared" si="3"/>
+        <v>28.317</v>
+      </c>
+      <c r="V12" s="6">
+        <f t="shared" si="1"/>
+        <v>23.977000000000004</v>
+      </c>
+      <c r="W12" s="6">
         <f t="shared" si="2"/>
-        <v>28.317</v>
-      </c>
-      <c r="V12" s="6">
-        <f t="shared" si="0"/>
-        <v>23.977000000000004</v>
-      </c>
-      <c r="W12" s="6">
-        <f t="shared" si="1"/>
         <v>19.254000000000001</v>
       </c>
     </row>
@@ -1491,15 +1491,15 @@
         <v>13.36</v>
       </c>
       <c r="U13" s="6">
+        <f t="shared" si="3"/>
+        <v>54.364999999999995</v>
+      </c>
+      <c r="V13" s="6">
+        <f t="shared" si="1"/>
+        <v>49.951999999999998</v>
+      </c>
+      <c r="W13" s="6">
         <f t="shared" si="2"/>
-        <v>54.364999999999995</v>
-      </c>
-      <c r="V13" s="6">
-        <f t="shared" si="0"/>
-        <v>49.951999999999998</v>
-      </c>
-      <c r="W13" s="6">
-        <f t="shared" si="1"/>
         <v>54.033000000000001</v>
       </c>
     </row>
@@ -1508,59 +1508,59 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <f t="shared" ref="C14" si="8">SUM(C10:C13)</f>
+        <f t="shared" ref="C14" si="9">SUM(C10:C13)</f>
         <v>26.173000000000002</v>
       </c>
       <c r="D14" s="7">
-        <f t="shared" ref="D14" si="9">SUM(D10:D13)</f>
+        <f t="shared" ref="D14" si="10">SUM(D10:D13)</f>
         <v>25.35</v>
       </c>
       <c r="E14" s="7">
-        <f t="shared" ref="E14" si="10">SUM(E10:E13)</f>
+        <f t="shared" ref="E14" si="11">SUM(E10:E13)</f>
         <v>23.814999999999998</v>
       </c>
       <c r="F14" s="7">
-        <f t="shared" ref="F14" si="11">SUM(F10:F13)</f>
+        <f t="shared" ref="F14" si="12">SUM(F10:F13)</f>
         <v>24.635999999999999</v>
       </c>
       <c r="G14" s="7">
-        <f t="shared" ref="G14:P14" si="12">SUM(G10:G13)</f>
+        <f t="shared" ref="G14:P14" si="13">SUM(G10:G13)</f>
         <v>24.545000000000002</v>
       </c>
       <c r="H14" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>23.989000000000001</v>
       </c>
       <c r="I14" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>21.736000000000001</v>
       </c>
       <c r="J14" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>20.784999999999997</v>
       </c>
       <c r="K14" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>22.548999999999999</v>
       </c>
       <c r="L14" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>23.038</v>
       </c>
       <c r="M14" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>22.319000000000003</v>
       </c>
       <c r="N14" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>24.003</v>
       </c>
       <c r="O14" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>25.677</v>
       </c>
       <c r="P14" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>25.204000000000001</v>
       </c>
       <c r="Q14" s="7">
@@ -1568,15 +1568,15 @@
         <v>25.384999999999998</v>
       </c>
       <c r="U14" s="6">
+        <f t="shared" si="3"/>
+        <v>99.97399999999999</v>
+      </c>
+      <c r="V14" s="6">
+        <f t="shared" si="1"/>
+        <v>91.055000000000007</v>
+      </c>
+      <c r="W14" s="6">
         <f t="shared" si="2"/>
-        <v>99.97399999999999</v>
-      </c>
-      <c r="V14" s="6">
-        <f t="shared" si="0"/>
-        <v>91.055000000000007</v>
-      </c>
-      <c r="W14" s="6">
-        <f t="shared" si="1"/>
         <v>91.909000000000006</v>
       </c>
     </row>
@@ -1633,15 +1633,15 @@
         <v>35.408999999999999</v>
       </c>
       <c r="U15" s="6">
+        <f t="shared" si="3"/>
+        <v>191.23500000000004</v>
+      </c>
+      <c r="V15" s="6">
+        <f t="shared" si="1"/>
+        <v>148.90999999999997</v>
+      </c>
+      <c r="W15" s="6">
         <f t="shared" si="2"/>
-        <v>191.23500000000004</v>
-      </c>
-      <c r="V15" s="6">
-        <f t="shared" si="0"/>
-        <v>148.90999999999997</v>
-      </c>
-      <c r="W15" s="6">
-        <f t="shared" si="1"/>
         <v>160.14099999999999</v>
       </c>
     </row>
@@ -1698,15 +1698,15 @@
         <v>30.498000000000001</v>
       </c>
       <c r="U16" s="6">
+        <f t="shared" si="3"/>
+        <v>109.42300000000002</v>
+      </c>
+      <c r="V16" s="6">
+        <f t="shared" si="1"/>
+        <v>103.56100000000001</v>
+      </c>
+      <c r="W16" s="6">
         <f t="shared" si="2"/>
-        <v>109.42300000000002</v>
-      </c>
-      <c r="V16" s="6">
-        <f t="shared" si="0"/>
-        <v>103.56100000000001</v>
-      </c>
-      <c r="W16" s="6">
-        <f t="shared" si="1"/>
         <v>117.11699999999999</v>
       </c>
     </row>
@@ -1763,15 +1763,15 @@
         <v>27.283000000000001</v>
       </c>
       <c r="U17" s="6">
+        <f t="shared" si="3"/>
+        <v>86.697000000000003</v>
+      </c>
+      <c r="V17" s="6">
+        <f t="shared" si="1"/>
+        <v>80.135999999999996</v>
+      </c>
+      <c r="W17" s="6">
         <f t="shared" si="2"/>
-        <v>86.697000000000003</v>
-      </c>
-      <c r="V17" s="6">
-        <f t="shared" si="0"/>
-        <v>80.135999999999996</v>
-      </c>
-      <c r="W17" s="6">
-        <f t="shared" si="1"/>
         <v>95.501000000000005</v>
       </c>
     </row>
@@ -1827,15 +1827,15 @@
         <v>0.72699999999999998</v>
       </c>
       <c r="U18" s="6">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="V18" s="6">
+        <f t="shared" si="1"/>
+        <v>70.697999999999993</v>
+      </c>
+      <c r="W18" s="6">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="V18" s="6">
-        <f t="shared" si="0"/>
-        <v>70.697999999999993</v>
-      </c>
-      <c r="W18" s="6">
-        <f t="shared" si="1"/>
         <v>830.62099999999998</v>
       </c>
     </row>
@@ -1844,59 +1844,59 @@
         <v>25</v>
       </c>
       <c r="C19" s="7">
-        <f t="shared" ref="C19" si="13">SUM(C15:C18)</f>
+        <f t="shared" ref="C19" si="14">SUM(C15:C18)</f>
         <v>99.578999999999994</v>
       </c>
       <c r="D19" s="7">
-        <f t="shared" ref="D19" si="14">SUM(D15:D18)</f>
+        <f t="shared" ref="D19" si="15">SUM(D15:D18)</f>
         <v>97.217000000000013</v>
       </c>
       <c r="E19" s="7">
-        <f t="shared" ref="E19" si="15">SUM(E15:E18)</f>
+        <f t="shared" ref="E19" si="16">SUM(E15:E18)</f>
         <v>91.292000000000002</v>
       </c>
       <c r="F19" s="7">
-        <f t="shared" ref="F19" si="16">SUM(F15:F18)</f>
+        <f t="shared" ref="F19" si="17">SUM(F15:F18)</f>
         <v>99.267000000000024</v>
       </c>
       <c r="G19" s="7">
-        <f t="shared" ref="G19:P19" si="17">SUM(G15:G18)</f>
+        <f t="shared" ref="G19:P19" si="18">SUM(G15:G18)</f>
         <v>86.950999999999993</v>
       </c>
       <c r="H19" s="7">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>80.266999999999996</v>
       </c>
       <c r="I19" s="7">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>125.94300000000001</v>
       </c>
       <c r="J19" s="7">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>110.14399999999998</v>
       </c>
       <c r="K19" s="7">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>283.505</v>
       </c>
       <c r="L19" s="7">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>516.55999999999995</v>
       </c>
       <c r="M19" s="7">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>155.33600000000001</v>
       </c>
       <c r="N19" s="7">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>247.97900000000001</v>
       </c>
       <c r="O19" s="7">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>263.56</v>
       </c>
       <c r="P19" s="7">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>1014.992</v>
       </c>
       <c r="Q19" s="7">
@@ -1904,15 +1904,15 @@
         <v>93.917000000000002</v>
       </c>
       <c r="U19" s="7">
+        <f t="shared" si="3"/>
+        <v>387.35500000000002</v>
+      </c>
+      <c r="V19" s="7">
+        <f t="shared" si="1"/>
+        <v>403.30499999999995</v>
+      </c>
+      <c r="W19" s="7">
         <f t="shared" si="2"/>
-        <v>387.35500000000002</v>
-      </c>
-      <c r="V19" s="7">
-        <f t="shared" si="0"/>
-        <v>403.30499999999995</v>
-      </c>
-      <c r="W19" s="7">
-        <f t="shared" si="1"/>
         <v>1203.3799999999999</v>
       </c>
     </row>
@@ -1921,59 +1921,59 @@
         <v>54</v>
       </c>
       <c r="C20" s="7">
-        <f t="shared" ref="C20" si="18">C9-C14-C19</f>
+        <f t="shared" ref="C20" si="19">C9-C14-C19</f>
         <v>-10.385999999999981</v>
       </c>
       <c r="D20" s="7">
-        <f t="shared" ref="D20" si="19">D9-D14-D19</f>
+        <f t="shared" ref="D20" si="20">D9-D14-D19</f>
         <v>-4.8300000000000125</v>
       </c>
       <c r="E20" s="7">
-        <f t="shared" ref="E20" si="20">E9-E14-E19</f>
+        <f t="shared" ref="E20" si="21">E9-E14-E19</f>
         <v>4.5860000000000127</v>
       </c>
       <c r="F20" s="7">
-        <f t="shared" ref="F20" si="21">F9-F14-F19</f>
+        <f t="shared" ref="F20" si="22">F9-F14-F19</f>
         <v>9.6280000000000143</v>
       </c>
       <c r="G20" s="7">
-        <f t="shared" ref="G20:P20" si="22">G9-G14-G19</f>
+        <f t="shared" ref="G20:P20" si="23">G9-G14-G19</f>
         <v>-7.1999999999988518E-2</v>
       </c>
       <c r="H20" s="7">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>6.328000000000003</v>
       </c>
       <c r="I20" s="7">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>-20.271000000000015</v>
       </c>
       <c r="J20" s="7">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>-152.56199999999995</v>
       </c>
       <c r="K20" s="7">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>-183.15199999999999</v>
       </c>
       <c r="L20" s="7">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>-414.24699999999996</v>
       </c>
       <c r="M20" s="7">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>-49.661000000000016</v>
       </c>
       <c r="N20" s="7">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>-137.46699999999998</v>
       </c>
       <c r="O20" s="7">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>-169.96</v>
       </c>
       <c r="P20" s="7">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>-918.12299999999993</v>
       </c>
       <c r="Q20" s="7">
@@ -1981,15 +1981,15 @@
         <v>6.0580000000000211</v>
       </c>
       <c r="U20" s="7">
+        <f t="shared" si="3"/>
+        <v>-1.0019999999999669</v>
+      </c>
+      <c r="V20" s="7">
+        <f t="shared" si="1"/>
+        <v>-166.57699999999994</v>
+      </c>
+      <c r="W20" s="7">
         <f t="shared" si="2"/>
-        <v>-1.0019999999999669</v>
-      </c>
-      <c r="V20" s="7">
-        <f t="shared" si="0"/>
-        <v>-166.57699999999994</v>
-      </c>
-      <c r="W20" s="7">
-        <f t="shared" si="1"/>
         <v>-784.52699999999993</v>
       </c>
     </row>
@@ -2046,15 +2046,15 @@
         <v>-14.073</v>
       </c>
       <c r="U21" s="6">
+        <f t="shared" si="3"/>
+        <v>10.909000000000001</v>
+      </c>
+      <c r="V21" s="6">
+        <f t="shared" si="1"/>
+        <v>0.71000000000000041</v>
+      </c>
+      <c r="W21" s="6">
         <f t="shared" si="2"/>
-        <v>10.909000000000001</v>
-      </c>
-      <c r="V21" s="6">
-        <f t="shared" si="0"/>
-        <v>0.71000000000000041</v>
-      </c>
-      <c r="W21" s="6">
-        <f t="shared" si="1"/>
         <v>-29.149000000000001</v>
       </c>
     </row>
@@ -2111,15 +2111,15 @@
         <v>4.8970000000000002</v>
       </c>
       <c r="U22" s="6">
+        <f t="shared" si="3"/>
+        <v>28.356000000000002</v>
+      </c>
+      <c r="V22" s="6">
+        <f t="shared" si="1"/>
+        <v>-7.0380000000000003</v>
+      </c>
+      <c r="W22" s="6">
         <f t="shared" si="2"/>
-        <v>28.356000000000002</v>
-      </c>
-      <c r="V22" s="6">
-        <f t="shared" si="0"/>
-        <v>-7.0380000000000003</v>
-      </c>
-      <c r="W22" s="6">
-        <f t="shared" si="1"/>
         <v>2.2890000000000001</v>
       </c>
     </row>
@@ -2176,15 +2176,15 @@
         <v>23.960999999999999</v>
       </c>
       <c r="U23" s="6">
+        <f t="shared" si="3"/>
+        <v>3.9079999999999995</v>
+      </c>
+      <c r="V23" s="6">
+        <f t="shared" si="1"/>
+        <v>-12.429000000000002</v>
+      </c>
+      <c r="W23" s="6">
         <f t="shared" si="2"/>
-        <v>3.9079999999999995</v>
-      </c>
-      <c r="V23" s="6">
-        <f t="shared" si="0"/>
-        <v>-12.429000000000002</v>
-      </c>
-      <c r="W23" s="6">
-        <f t="shared" si="1"/>
         <v>-275.90899999999999</v>
       </c>
     </row>
@@ -2194,70 +2194,70 @@
         <v>28</v>
       </c>
       <c r="C24" s="7">
-        <f t="shared" ref="C24:F24" si="23">C20+C21+C22-C23</f>
+        <f t="shared" ref="C24:F24" si="24">C20+C21+C22-C23</f>
         <v>-7.905999999999981</v>
       </c>
       <c r="D24" s="7">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>20.393999999999991</v>
       </c>
       <c r="E24" s="7">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>9.7000000000000135</v>
       </c>
       <c r="F24" s="7">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>12.167000000000016</v>
       </c>
       <c r="G24" s="7">
-        <f>G20+G21+G22-G23</f>
+        <f t="shared" ref="G24:Q24" si="25">G20+G21+G22-G23</f>
         <v>0.65700000000001157</v>
       </c>
       <c r="H24" s="7">
-        <f>H20+H21+H22-H23</f>
+        <f t="shared" si="25"/>
         <v>3.3870000000000027</v>
       </c>
       <c r="I24" s="7">
-        <f>I20+I21+I22-I23</f>
+        <f t="shared" si="25"/>
         <v>-14.229000000000015</v>
       </c>
       <c r="J24" s="7">
-        <f>J20+J21+J22-J23</f>
+        <f t="shared" si="25"/>
         <v>-150.29099999999997</v>
       </c>
       <c r="K24" s="7">
-        <f>K20+K21+K22-K23</f>
+        <f t="shared" si="25"/>
         <v>-110.01999999999997</v>
       </c>
       <c r="L24" s="7">
-        <f>L20+L21+L22-L23</f>
+        <f t="shared" si="25"/>
         <v>-299.34699999999998</v>
       </c>
       <c r="M24" s="7">
-        <f>M20+M21+M22-M23</f>
+        <f t="shared" si="25"/>
         <v>-36.13600000000001</v>
       </c>
       <c r="N24" s="7">
-        <f>N20+N21+N22-N23</f>
+        <f t="shared" si="25"/>
         <v>-89.975000000000009</v>
       </c>
       <c r="O24" s="7">
-        <f>O20+O21+O22-O23</f>
+        <f t="shared" si="25"/>
         <v>-130.751</v>
       </c>
       <c r="P24" s="7">
-        <f>P20+P21+P22-P23</f>
+        <f t="shared" si="25"/>
         <v>-1062.298</v>
       </c>
       <c r="Q24" s="7">
-        <f>Q20+Q21+Q22-Q23</f>
+        <f t="shared" si="25"/>
         <v>-27.078999999999979</v>
       </c>
       <c r="R24"/>
       <c r="S24"/>
       <c r="T24"/>
       <c r="U24" s="23">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>34.35500000000004</v>
       </c>
       <c r="V24" s="24">
@@ -2274,59 +2274,59 @@
         <v>29</v>
       </c>
       <c r="C25" s="8">
-        <f t="shared" ref="C25" si="24">C24/C26</f>
+        <f t="shared" ref="C25" si="26">C24/C26</f>
         <v>-0.76549186676994396</v>
       </c>
       <c r="D25" s="8">
-        <f t="shared" ref="D25" si="25">D24/D26</f>
+        <f t="shared" ref="D25" si="27">D24/D26</f>
         <v>1.9780795344325888</v>
       </c>
       <c r="E25" s="8">
-        <f t="shared" ref="E25" si="26">E24/E26</f>
+        <f t="shared" ref="E25" si="28">E24/E26</f>
         <v>0.94092540498593602</v>
       </c>
       <c r="F25" s="8">
-        <f t="shared" ref="F25" si="27">F24/F26</f>
+        <f t="shared" ref="F25" si="29">F24/F26</f>
         <v>1.1780596436870658</v>
       </c>
       <c r="G25" s="8">
-        <f t="shared" ref="G25:P25" si="28">G24/G26</f>
+        <f t="shared" ref="G25:P25" si="30">G24/G26</f>
         <v>6.5496959425781237E-2</v>
       </c>
       <c r="H25" s="8">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>0.34770557437634769</v>
       </c>
       <c r="I25" s="8">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>-1.4797212978369401</v>
       </c>
       <c r="J25" s="8">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>-15.519516728624533</v>
       </c>
       <c r="K25" s="8">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>-11.40458173525448</v>
       </c>
       <c r="L25" s="8">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>-30.714857377385592</v>
       </c>
       <c r="M25" s="8">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>-3.6139613961396146</v>
       </c>
       <c r="N25" s="8">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>-8.9795409181636732</v>
       </c>
       <c r="O25" s="8">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>-11.582159624413146</v>
       </c>
       <c r="P25" s="8">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>-94.008672566371672</v>
       </c>
       <c r="Q25" s="8">
@@ -2477,59 +2477,59 @@
         <v>32</v>
       </c>
       <c r="C38" s="9">
-        <f t="shared" ref="C38" si="29">C39-C51</f>
+        <f t="shared" ref="C38" si="31">C39-C51</f>
         <v>258.74299999999999</v>
       </c>
       <c r="D38" s="9">
-        <f t="shared" ref="D38" si="30">D39-D51</f>
+        <f t="shared" ref="D38" si="32">D39-D51</f>
         <v>261.49700000000001</v>
       </c>
       <c r="E38" s="9">
-        <f t="shared" ref="E38" si="31">E39-E51</f>
+        <f t="shared" ref="E38" si="33">E39-E51</f>
         <v>375.07100000000003</v>
       </c>
       <c r="F38" s="9">
-        <f t="shared" ref="F38" si="32">F39-F51</f>
+        <f t="shared" ref="F38" si="34">F39-F51</f>
         <v>456.72699999999998</v>
       </c>
       <c r="G38" s="9">
-        <f t="shared" ref="G38:P38" si="33">G39-G51</f>
+        <f t="shared" ref="G38:P38" si="35">G39-G51</f>
         <v>429.27600000000001</v>
       </c>
       <c r="H38" s="9">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>420.899</v>
       </c>
       <c r="I38" s="9">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>52.652999999999999</v>
       </c>
       <c r="J38" s="9">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>45.012999999999998</v>
       </c>
       <c r="K38" s="9">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>68.027000000000001</v>
       </c>
       <c r="L38" s="9">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>49.137</v>
       </c>
       <c r="M38" s="9">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>48.673000000000002</v>
       </c>
       <c r="N38" s="9">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>55.267000000000003</v>
       </c>
       <c r="O38" s="9">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>84.441000000000003</v>
       </c>
       <c r="P38" s="9">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>60.888999999999996</v>
       </c>
       <c r="Q38" s="9">
@@ -3042,59 +3042,59 @@
         <v>41</v>
       </c>
       <c r="C49" s="7">
-        <f t="shared" ref="C49" si="34">SUM(C39:C48)</f>
+        <f t="shared" ref="C49" si="36">SUM(C39:C48)</f>
         <v>888.34400000000005</v>
       </c>
       <c r="D49" s="7">
-        <f t="shared" ref="D49" si="35">SUM(D39:D48)</f>
+        <f t="shared" ref="D49" si="37">SUM(D39:D48)</f>
         <v>899.71999999999991</v>
       </c>
       <c r="E49" s="7">
-        <f t="shared" ref="E49" si="36">SUM(E39:E48)</f>
+        <f t="shared" ref="E49" si="38">SUM(E39:E48)</f>
         <v>888.71600000000001</v>
       </c>
       <c r="F49" s="7">
-        <f t="shared" ref="F49" si="37">SUM(F39:F48)</f>
+        <f t="shared" ref="F49" si="39">SUM(F39:F48)</f>
         <v>916.57100000000003</v>
       </c>
       <c r="G49" s="7">
-        <f t="shared" ref="G49:P49" si="38">SUM(G39:G48)</f>
+        <f t="shared" ref="G49:P49" si="40">SUM(G39:G48)</f>
         <v>849.27100000000019</v>
       </c>
       <c r="H49" s="7">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>833.04599999999982</v>
       </c>
       <c r="I49" s="7">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>772.90499999999997</v>
       </c>
       <c r="J49" s="7">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>1465.6119999999999</v>
       </c>
       <c r="K49" s="7">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>2443.0790000000002</v>
       </c>
       <c r="L49" s="7">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>2624.3590000000004</v>
       </c>
       <c r="M49" s="7">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>2986.2439999999997</v>
       </c>
       <c r="N49" s="7">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>3557.1240000000007</v>
       </c>
       <c r="O49" s="7">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>3638.3870000000002</v>
       </c>
       <c r="P49" s="7">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>2568.3649999999998</v>
       </c>
       <c r="Q49" s="7">
@@ -3127,19 +3127,19 @@
         <v>42</v>
       </c>
       <c r="C51" s="9">
-        <f t="shared" ref="C51:G51" si="39">C56</f>
+        <f t="shared" ref="C51:F51" si="41">C56</f>
         <v>0</v>
       </c>
       <c r="D51" s="9">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>0</v>
       </c>
       <c r="E51" s="9">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>0</v>
       </c>
       <c r="F51" s="9">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>0</v>
       </c>
       <c r="G51" s="9">
@@ -3155,31 +3155,31 @@
         <v>0</v>
       </c>
       <c r="J51" s="9">
-        <f t="shared" ref="G51:P51" si="40">J57</f>
+        <f t="shared" ref="J51:P51" si="42">J57</f>
         <v>14.662000000000001</v>
       </c>
       <c r="K51" s="9">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>14.516999999999999</v>
       </c>
       <c r="L51" s="9">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>7.2619999999999996</v>
       </c>
       <c r="M51" s="9">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>8.3019999999999996</v>
       </c>
       <c r="N51" s="9">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>8.0890000000000004</v>
       </c>
       <c r="O51" s="9">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>8.2360000000000007</v>
       </c>
       <c r="P51" s="9">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>8.4969999999999999</v>
       </c>
       <c r="Q51" s="9">
@@ -3642,7 +3642,7 @@
         <v>52</v>
       </c>
       <c r="C61" s="7">
-        <f t="shared" ref="C61" si="41">SUM(C52:C60)</f>
+        <f t="shared" ref="C61" si="43">SUM(C52:C60)</f>
         <v>410.03800000000001</v>
       </c>
       <c r="D61" s="7">
@@ -3650,51 +3650,51 @@
         <v>397.03100000000001</v>
       </c>
       <c r="E61" s="7">
-        <f t="shared" ref="E61" si="42">SUM(E52:E60)</f>
+        <f t="shared" ref="E61" si="44">SUM(E52:E60)</f>
         <v>373.29699999999997</v>
       </c>
       <c r="F61" s="7">
-        <f t="shared" ref="F61" si="43">SUM(F52:F60)</f>
+        <f t="shared" ref="F61" si="45">SUM(F52:F60)</f>
         <v>408.012</v>
       </c>
       <c r="G61" s="7">
-        <f t="shared" ref="G61:P61" si="44">SUM(G52:G60)</f>
+        <f t="shared" ref="G61:P61" si="46">SUM(G52:G60)</f>
         <v>387.84500000000003</v>
       </c>
       <c r="H61" s="7">
-        <f t="shared" si="44"/>
+        <f t="shared" si="46"/>
         <v>374.58600000000001</v>
       </c>
       <c r="I61" s="7">
-        <f t="shared" si="44"/>
+        <f t="shared" si="46"/>
         <v>383.613</v>
       </c>
       <c r="J61" s="7">
-        <f t="shared" si="44"/>
+        <f t="shared" si="46"/>
         <v>912.56699999999989</v>
       </c>
       <c r="K61" s="7">
-        <f t="shared" si="44"/>
+        <f t="shared" si="46"/>
         <v>2078.0410000000002</v>
       </c>
       <c r="L61" s="7">
-        <f t="shared" si="44"/>
+        <f t="shared" si="46"/>
         <v>2546.9400000000005</v>
       </c>
       <c r="M61" s="7">
-        <f t="shared" si="44"/>
+        <f t="shared" si="46"/>
         <v>2524.9309000000003</v>
       </c>
       <c r="N61" s="7">
-        <f t="shared" si="44"/>
+        <f t="shared" si="46"/>
         <v>2578.1660000000002</v>
       </c>
       <c r="O61" s="7">
-        <f t="shared" si="44"/>
+        <f t="shared" si="46"/>
         <v>2775.3879999999999</v>
       </c>
       <c r="P61" s="7">
-        <f t="shared" si="44"/>
+        <f t="shared" si="46"/>
         <v>2755.4329999999995</v>
       </c>
       <c r="Q61" s="7">
@@ -3730,59 +3730,59 @@
         <v>71</v>
       </c>
       <c r="D67" s="7">
-        <f>SUM(A24:D24)</f>
+        <f t="shared" ref="D67:Q67" si="47">SUM(A24:D24)</f>
         <v>12.48800000000001</v>
       </c>
       <c r="E67" s="7">
-        <f>SUM(B24:E24)</f>
+        <f t="shared" si="47"/>
         <v>22.188000000000024</v>
       </c>
       <c r="F67" s="7">
-        <f>SUM(C24:F24)</f>
+        <f t="shared" si="47"/>
         <v>34.35500000000004</v>
       </c>
       <c r="G67" s="7">
-        <f>SUM(D24:G24)</f>
+        <f t="shared" si="47"/>
         <v>42.918000000000035</v>
       </c>
       <c r="H67" s="7">
-        <f>SUM(E24:H24)</f>
+        <f t="shared" si="47"/>
         <v>25.911000000000044</v>
       </c>
       <c r="I67" s="7">
-        <f>SUM(F24:I24)</f>
+        <f t="shared" si="47"/>
         <v>1.9820000000000153</v>
       </c>
       <c r="J67" s="7">
-        <f>SUM(G24:J24)</f>
+        <f t="shared" si="47"/>
         <v>-160.47599999999997</v>
       </c>
       <c r="K67" s="7">
-        <f>SUM(H24:K24)</f>
+        <f t="shared" si="47"/>
         <v>-271.15299999999996</v>
       </c>
       <c r="L67" s="7">
-        <f>SUM(I24:L24)</f>
+        <f t="shared" si="47"/>
         <v>-573.88699999999994</v>
       </c>
       <c r="M67" s="7">
-        <f>SUM(J24:M24)</f>
+        <f t="shared" si="47"/>
         <v>-595.79399999999987</v>
       </c>
       <c r="N67" s="7">
-        <f>SUM(K24:N24)</f>
+        <f t="shared" si="47"/>
         <v>-535.47799999999995</v>
       </c>
       <c r="O67" s="7">
-        <f>SUM(L24:O24)</f>
+        <f t="shared" si="47"/>
         <v>-556.20900000000006</v>
       </c>
       <c r="P67" s="7">
-        <f>SUM(M24:P24)</f>
+        <f t="shared" si="47"/>
         <v>-1319.16</v>
       </c>
       <c r="Q67" s="7">
-        <f>SUM(N24:Q24)</f>
+        <f t="shared" si="47"/>
         <v>-1310.1029999999998</v>
       </c>
     </row>
@@ -3800,55 +3800,55 @@
         <v>1.3879873738496433E-2</v>
       </c>
       <c r="E69" s="12">
-        <f t="shared" ref="E69:Q69" si="45">E67/E49</f>
+        <f t="shared" ref="E69:Q69" si="48">E67/E49</f>
         <v>2.4966355956233515E-2</v>
       </c>
       <c r="F69" s="12">
-        <f t="shared" si="45"/>
+        <f t="shared" si="48"/>
         <v>3.7482093585766992E-2</v>
       </c>
       <c r="G69" s="12">
-        <f t="shared" si="45"/>
+        <f t="shared" si="48"/>
         <v>5.0535105990902815E-2</v>
       </c>
       <c r="H69" s="12">
-        <f t="shared" si="45"/>
+        <f t="shared" si="48"/>
         <v>3.1103924633213591E-2</v>
       </c>
       <c r="I69" s="12">
-        <f t="shared" si="45"/>
+        <f t="shared" si="48"/>
         <v>2.5643513756542077E-3</v>
       </c>
       <c r="J69" s="12">
-        <f t="shared" si="45"/>
+        <f t="shared" si="48"/>
         <v>-0.10949419082267339</v>
       </c>
       <c r="K69" s="12">
-        <f t="shared" si="45"/>
+        <f t="shared" si="48"/>
         <v>-0.11098822428582945</v>
       </c>
       <c r="L69" s="12">
-        <f t="shared" si="45"/>
+        <f t="shared" si="48"/>
         <v>-0.21867701789275013</v>
       </c>
       <c r="M69" s="12">
-        <f t="shared" si="45"/>
+        <f t="shared" si="48"/>
         <v>-0.19951283284286211</v>
       </c>
       <c r="N69" s="12">
-        <f t="shared" si="45"/>
+        <f t="shared" si="48"/>
         <v>-0.15053678196205694</v>
       </c>
       <c r="O69" s="12">
-        <f t="shared" si="45"/>
+        <f t="shared" si="48"/>
         <v>-0.1528724129676145</v>
       </c>
       <c r="P69" s="12">
-        <f t="shared" si="45"/>
+        <f t="shared" si="48"/>
         <v>-0.51361858614332467</v>
       </c>
       <c r="Q69" s="12">
-        <f t="shared" si="45"/>
+        <f t="shared" si="48"/>
         <v>-0.51471740307376057</v>
       </c>
     </row>
@@ -3866,55 +3866,55 @@
         <v>4.1409130700055738E-2</v>
       </c>
       <c r="E71" s="12">
-        <f t="shared" ref="E71:Q71" si="46">E67/(E42+E44+E45+E46+E47+E48)</f>
+        <f t="shared" ref="E71:Q71" si="49">E67/(E42+E44+E45+E46+E47+E48)</f>
         <v>7.786246683791645E-2</v>
       </c>
       <c r="F71" s="12">
-        <f t="shared" si="46"/>
+        <f t="shared" si="49"/>
         <v>0.10517663122510659</v>
       </c>
       <c r="G71" s="12">
-        <f t="shared" si="46"/>
+        <f t="shared" si="49"/>
         <v>0.15265486725663729</v>
       </c>
       <c r="H71" s="12">
-        <f t="shared" si="46"/>
+        <f t="shared" si="49"/>
         <v>9.1214396603618311E-2</v>
       </c>
       <c r="I71" s="12">
-        <f t="shared" si="46"/>
+        <f t="shared" si="49"/>
         <v>2.8194218620418124E-3</v>
       </c>
       <c r="J71" s="12">
-        <f t="shared" si="46"/>
+        <f t="shared" si="49"/>
         <v>-0.11541274678108501</v>
       </c>
       <c r="K71" s="12">
-        <f t="shared" si="46"/>
+        <f t="shared" si="49"/>
         <v>-0.11573140027256223</v>
       </c>
       <c r="L71" s="12">
-        <f t="shared" si="46"/>
+        <f t="shared" si="49"/>
         <v>-0.2252819228261411</v>
       </c>
       <c r="M71" s="12">
-        <f t="shared" si="46"/>
+        <f t="shared" si="49"/>
         <v>-0.20457359470122269</v>
       </c>
       <c r="N71" s="12">
-        <f t="shared" si="46"/>
+        <f t="shared" si="49"/>
         <v>-0.15394204124321278</v>
       </c>
       <c r="O71" s="12">
-        <f t="shared" si="46"/>
+        <f t="shared" si="49"/>
         <v>-0.15808896780261311</v>
       </c>
       <c r="P71" s="12">
-        <f t="shared" si="46"/>
+        <f t="shared" si="49"/>
         <v>-0.53465125025938998</v>
       </c>
       <c r="Q71" s="12">
-        <f t="shared" si="46"/>
+        <f t="shared" si="49"/>
         <v>-0.53409957687147425</v>
       </c>
     </row>
@@ -3930,8 +3930,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F60E87BF-0216-44A0-A79C-279A8A2CA3A0}">
   <dimension ref="B2:C7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
